--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA57B70-4DCF-AD44-BF64-350CB220F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AD2EB-F97F-AE40-BB49-108BB7CCF896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FDA DTS 15-20 data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA DTS 15-20 data'!$A$1:$X$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA DTS 15-20 data'!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2971,13 +2971,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3333,12 +3332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA292"/>
+  <dimension ref="A1:X289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,7 +3346,7 @@
     <col min="7" max="7" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -3472,7 +3470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -3522,7 +3520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>426</v>
       </c>
@@ -3622,7 +3620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>497</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>522</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>398</v>
       </c>
@@ -3771,12 +3769,8 @@
       <c r="X8" t="s">
         <v>27</v>
       </c>
-      <c r="AA8">
-        <f>(P8/100)*I8</f>
-        <v>65.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>346</v>
       </c>
@@ -3826,7 +3820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>470</v>
       </c>
@@ -3876,7 +3870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -3917,7 +3911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>493</v>
       </c>
@@ -3958,7 +3952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>517</v>
       </c>
@@ -4008,7 +4002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -4058,7 +4052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>474</v>
       </c>
@@ -4107,12 +4101,8 @@
       <c r="X15" t="s">
         <v>27</v>
       </c>
-      <c r="AA15">
-        <f>(P15/100)*I15</f>
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>500</v>
       </c>
@@ -4162,7 +4152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>390</v>
       </c>
@@ -4215,7 +4205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -4265,7 +4255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>403</v>
       </c>
@@ -4314,12 +4304,8 @@
       <c r="X19" t="s">
         <v>39</v>
       </c>
-      <c r="AA19">
-        <f t="shared" ref="AA19:AA20" si="0">(P19/100)*I19</f>
-        <v>9.0400000000000009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>405</v>
       </c>
@@ -4368,12 +4354,8 @@
       <c r="X20" t="s">
         <v>27</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="0"/>
-        <v>210.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>458</v>
       </c>
@@ -4426,7 +4408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>363</v>
       </c>
@@ -4476,7 +4458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>456</v>
       </c>
@@ -4526,7 +4508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>514</v>
       </c>
@@ -4576,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>521</v>
       </c>
@@ -4626,7 +4608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -4676,7 +4658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -4726,7 +4708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>507</v>
       </c>
@@ -4773,7 +4755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>361</v>
       </c>
@@ -4823,7 +4805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -4867,7 +4849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -4917,7 +4899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -4967,7 +4949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>450</v>
       </c>
@@ -5014,7 +4996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -5063,12 +5045,8 @@
       <c r="X34" t="s">
         <v>27</v>
       </c>
-      <c r="AA34">
-        <f>(P34/100)*I34</f>
-        <v>15.600000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -5118,7 +5096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>483</v>
       </c>
@@ -5165,7 +5143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>445</v>
       </c>
@@ -5215,7 +5193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>468</v>
       </c>
@@ -5264,12 +5242,8 @@
       <c r="X38" t="s">
         <v>27</v>
       </c>
-      <c r="AA38">
-        <f>(P38/100)*I38</f>
-        <v>422.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>401</v>
       </c>
@@ -5316,7 +5290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>454</v>
       </c>
@@ -5365,12 +5339,8 @@
       <c r="X40" t="s">
         <v>27</v>
       </c>
-      <c r="AA40">
-        <f t="shared" ref="AA40:AA43" si="1">(P40/100)*I40</f>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -5419,12 +5389,8 @@
       <c r="X41" t="s">
         <v>27</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="1"/>
-        <v>5.79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>394</v>
       </c>
@@ -5473,12 +5439,8 @@
       <c r="X42" t="s">
         <v>39</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="1"/>
-        <v>15.77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>476</v>
       </c>
@@ -5527,12 +5489,8 @@
       <c r="X43" t="s">
         <v>39</v>
       </c>
-      <c r="AA43">
-        <f t="shared" si="1"/>
-        <v>283.36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>388</v>
       </c>
@@ -5582,7 +5540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>504</v>
       </c>
@@ -5632,7 +5590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>513</v>
       </c>
@@ -5682,7 +5640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>438</v>
       </c>
@@ -5732,7 +5690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>396</v>
       </c>
@@ -5781,12 +5739,8 @@
       <c r="X48" t="s">
         <v>39</v>
       </c>
-      <c r="AA48">
-        <f t="shared" ref="AA48:AA49" si="2">(P48/100)*I48</f>
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>462</v>
       </c>
@@ -5835,12 +5789,8 @@
       <c r="X49" t="s">
         <v>27</v>
       </c>
-      <c r="AA49">
-        <f t="shared" si="2"/>
-        <v>150.08000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>481</v>
       </c>
@@ -5887,7 +5837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>440</v>
       </c>
@@ -5937,7 +5887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>369</v>
       </c>
@@ -5987,7 +5937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>431</v>
       </c>
@@ -6034,7 +5984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>448</v>
       </c>
@@ -6084,7 +6034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -6125,7 +6075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>345</v>
       </c>
@@ -6172,7 +6122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>353</v>
       </c>
@@ -6213,7 +6163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -6260,7 +6210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>378</v>
       </c>
@@ -6307,7 +6257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>540</v>
       </c>
@@ -6339,7 +6289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>519</v>
       </c>
@@ -6380,7 +6330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>383</v>
       </c>
@@ -6424,7 +6374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>647</v>
       </c>
@@ -6468,7 +6418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -6512,7 +6462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>357</v>
       </c>
@@ -6555,12 +6505,8 @@
       <c r="X65" t="s">
         <v>39</v>
       </c>
-      <c r="AA65">
-        <f>(P65/100)*I65</f>
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>424</v>
       </c>
@@ -6601,7 +6547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -6645,7 +6591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -6689,7 +6635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>359</v>
       </c>
@@ -6733,7 +6679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>304</v>
       </c>
@@ -6776,12 +6722,8 @@
       <c r="X70" t="s">
         <v>39</v>
       </c>
-      <c r="AA70">
-        <f>(P70/100)*I70</f>
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>381</v>
       </c>
@@ -6822,7 +6764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -6866,7 +6808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>323</v>
       </c>
@@ -6909,12 +6851,8 @@
       <c r="X73" t="s">
         <v>39</v>
       </c>
-      <c r="AA73">
-        <f>(P73/100)*I73</f>
-        <v>78.350000000000009</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -6958,7 +6896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>442</v>
       </c>
@@ -7002,7 +6940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -7046,7 +6984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -7089,12 +7027,8 @@
       <c r="X77" t="s">
         <v>39</v>
       </c>
-      <c r="AA77">
-        <f>(P77/100)*I77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>342</v>
       </c>
@@ -7138,7 +7072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>489</v>
       </c>
@@ -7179,7 +7113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>499</v>
       </c>
@@ -7220,7 +7154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>444</v>
       </c>
@@ -7264,7 +7198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>279</v>
       </c>
@@ -7311,7 +7245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -7354,12 +7288,8 @@
       <c r="X83" t="s">
         <v>39</v>
       </c>
-      <c r="AA83">
-        <f>(P83/100)*I83</f>
-        <v>468.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>421</v>
       </c>
@@ -7403,7 +7333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>248</v>
       </c>
@@ -7450,7 +7380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>412</v>
       </c>
@@ -7494,7 +7424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -7544,7 +7474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>646</v>
       </c>
@@ -7587,12 +7517,8 @@
       <c r="X88" t="s">
         <v>39</v>
       </c>
-      <c r="AA88">
-        <f>(P88/100)*I88</f>
-        <v>54.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>217</v>
       </c>
@@ -7636,7 +7562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>244</v>
       </c>
@@ -7680,7 +7606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>478</v>
       </c>
@@ -7729,12 +7655,8 @@
       <c r="X91" t="s">
         <v>27</v>
       </c>
-      <c r="AA91">
-        <f>(P91/100)*I91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -7781,7 +7703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7831,7 +7753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -7877,12 +7799,8 @@
       <c r="X94" t="s">
         <v>27</v>
       </c>
-      <c r="AA94">
-        <f>(P94/100)*I94</f>
-        <v>16.02</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>485</v>
       </c>
@@ -7929,7 +7847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>538</v>
       </c>
@@ -7964,7 +7882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>228</v>
       </c>
@@ -8011,7 +7929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>240</v>
       </c>
@@ -8057,12 +7975,8 @@
       <c r="X98" t="s">
         <v>39</v>
       </c>
-      <c r="AA98">
-        <f>(P98/100)*I98</f>
-        <v>20.79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -8109,7 +8023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -8153,7 +8067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -8203,7 +8117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -8250,7 +8164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>338</v>
       </c>
@@ -8291,7 +8205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -8338,7 +8252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -8385,7 +8299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>464</v>
       </c>
@@ -8431,12 +8345,8 @@
       <c r="X106" t="s">
         <v>27</v>
       </c>
-      <c r="AA106">
-        <f>(P106/100)*I106</f>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>299</v>
       </c>
@@ -8483,7 +8393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -8529,12 +8439,8 @@
       <c r="X108" t="s">
         <v>27</v>
       </c>
-      <c r="AA108">
-        <f>(P108/100)*I108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>315</v>
       </c>
@@ -8581,7 +8487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -8628,7 +8534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -8678,7 +8584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>238</v>
       </c>
@@ -8725,7 +8631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -8772,7 +8678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>269</v>
       </c>
@@ -8819,7 +8725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -8866,7 +8772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -8913,7 +8819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -8959,12 +8865,8 @@
       <c r="X117" t="s">
         <v>27</v>
       </c>
-      <c r="AA117">
-        <f>(P117/100)*I117</f>
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>297</v>
       </c>
@@ -9011,7 +8913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -9055,7 +8957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>327</v>
       </c>
@@ -9099,7 +9001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>191</v>
       </c>
@@ -9143,7 +9045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -9190,7 +9092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>329</v>
       </c>
@@ -9234,7 +9136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -9281,7 +9183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>40</v>
       </c>
@@ -9328,7 +9230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>509</v>
       </c>
@@ -9374,12 +9276,8 @@
       <c r="X126" t="s">
         <v>27</v>
       </c>
-      <c r="AA126">
-        <f>(P126/100)*I126</f>
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>331</v>
       </c>
@@ -9426,7 +9324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>437</v>
       </c>
@@ -9467,7 +9365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -9523,7 +9421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>523</v>
       </c>
@@ -9581,12 +9479,8 @@
       <c r="X130" t="s">
         <v>27</v>
       </c>
-      <c r="AA130">
-        <f>(P130/100)*I130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -9645,7 +9539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -9706,12 +9600,8 @@
       <c r="X132" t="s">
         <v>27</v>
       </c>
-      <c r="AA132">
-        <f>(P132/100)*I132</f>
-        <v>10.74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -9770,7 +9660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -9825,12 +9715,8 @@
       <c r="X134" t="s">
         <v>39</v>
       </c>
-      <c r="AA134">
-        <f>(P134/100)*I134</f>
-        <v>341.28000000000003</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -9889,7 +9775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -9948,7 +9834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -10006,12 +9892,8 @@
       <c r="X137" t="s">
         <v>39</v>
       </c>
-      <c r="AA137">
-        <f>(P137/100)*I137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>491</v>
       </c>
@@ -10070,7 +9952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>502</v>
       </c>
@@ -10128,12 +10010,8 @@
       <c r="X139" t="s">
         <v>27</v>
       </c>
-      <c r="AA139">
-        <f>(P139/100)*I139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -10195,7 +10073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>409</v>
       </c>
@@ -10257,7 +10135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>321</v>
       </c>
@@ -10315,12 +10193,8 @@
       <c r="X142" t="s">
         <v>39</v>
       </c>
-      <c r="AA142">
-        <f>(P142/100)*I142</f>
-        <v>121.32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -10382,7 +10256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>74</v>
       </c>
@@ -10441,7 +10315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>536</v>
       </c>
@@ -10487,12 +10361,8 @@
       <c r="X145" t="s">
         <v>27</v>
       </c>
-      <c r="AA145">
-        <f>(P145/100)*I145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -10551,7 +10421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>246</v>
       </c>
@@ -10609,12 +10479,8 @@
       <c r="X147" t="s">
         <v>27</v>
       </c>
-      <c r="AA147">
-        <f>(P147/100)*I147</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>472</v>
       </c>
@@ -10673,7 +10539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>211</v>
       </c>
@@ -10726,7 +10592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>284</v>
       </c>
@@ -10785,7 +10651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>133</v>
       </c>
@@ -10844,7 +10710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>294</v>
       </c>
@@ -10903,7 +10769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -10959,7 +10825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>291</v>
       </c>
@@ -11021,7 +10887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>295</v>
       </c>
@@ -11080,7 +10946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>143</v>
       </c>
@@ -11139,7 +11005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>233</v>
       </c>
@@ -11198,7 +11064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>76</v>
       </c>
@@ -11257,7 +11123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>365</v>
       </c>
@@ -11312,12 +11178,8 @@
       <c r="X159" t="s">
         <v>39</v>
       </c>
-      <c r="AA159">
-        <f>(P159/100)*I159</f>
-        <v>8.44</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>252</v>
       </c>
@@ -11376,7 +11238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>87</v>
       </c>
@@ -11435,7 +11297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>67</v>
       </c>
@@ -11493,12 +11355,8 @@
       <c r="X162" t="s">
         <v>27</v>
       </c>
-      <c r="AA162">
-        <f>(P162/100)*I162</f>
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -11557,7 +11415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -11616,7 +11474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -11672,7 +11530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -11730,12 +11588,8 @@
       <c r="X166" t="s">
         <v>27</v>
       </c>
-      <c r="AA166">
-        <f>(P166/100)*I166</f>
-        <v>313.74</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>136</v>
       </c>
@@ -11791,7 +11645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>487</v>
       </c>
@@ -11847,7 +11701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>460</v>
       </c>
@@ -11906,7 +11760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>385</v>
       </c>
@@ -11965,7 +11819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>370</v>
       </c>
@@ -12024,7 +11878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -12083,7 +11937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>419</v>
       </c>
@@ -12141,12 +11995,8 @@
       <c r="X173" t="s">
         <v>27</v>
       </c>
-      <c r="AA173">
-        <f>(P173/100)*I173</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>435</v>
       </c>
@@ -12202,7 +12052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -12261,7 +12111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -12320,7 +12170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -12379,7 +12229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>433</v>
       </c>
@@ -12432,7 +12282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>154</v>
       </c>
@@ -12491,7 +12341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>645</v>
       </c>
@@ -12550,7 +12400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>466</v>
       </c>
@@ -12609,7 +12459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>220</v>
       </c>
@@ -12668,7 +12518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>319</v>
       </c>
@@ -12724,7 +12574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>98</v>
       </c>
@@ -12783,7 +12633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -12842,7 +12692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>275</v>
       </c>
@@ -12904,7 +12754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -12966,7 +12816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -13022,7 +12872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -13078,7 +12928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>255</v>
       </c>
@@ -13134,7 +12984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>125</v>
       </c>
@@ -13192,12 +13042,8 @@
       <c r="X191" t="s">
         <v>27</v>
       </c>
-      <c r="AA191">
-        <f>(P191/100)*I191</f>
-        <v>36.720000000000006</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>153</v>
       </c>
@@ -13256,7 +13102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>336</v>
       </c>
@@ -13315,7 +13161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>167</v>
       </c>
@@ -13370,12 +13216,8 @@
       <c r="X194" t="s">
         <v>39</v>
       </c>
-      <c r="AA194">
-        <f>(P194/100)*I194</f>
-        <v>152.04</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>285</v>
       </c>
@@ -13434,7 +13276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>111</v>
       </c>
@@ -13490,7 +13332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>274</v>
       </c>
@@ -13549,7 +13391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>223</v>
       </c>
@@ -13608,7 +13450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>414</v>
       </c>
@@ -13667,7 +13509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>644</v>
       </c>
@@ -13723,7 +13565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>306</v>
       </c>
@@ -13782,7 +13624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>495</v>
       </c>
@@ -13838,7 +13680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>231</v>
       </c>
@@ -13897,7 +13739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>250</v>
       </c>
@@ -13956,7 +13798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>534</v>
       </c>
@@ -13997,7 +13839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>138</v>
       </c>
@@ -14052,12 +13894,8 @@
       <c r="X206" t="s">
         <v>27</v>
       </c>
-      <c r="AA206">
-        <f t="shared" ref="AA206:AA207" si="3">(P206/100)*I206</f>
-        <v>253.79999999999998</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>119</v>
       </c>
@@ -14115,12 +13953,8 @@
       <c r="X207" t="s">
         <v>27</v>
       </c>
-      <c r="AA207">
-        <f t="shared" si="3"/>
-        <v>799.02</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>178</v>
       </c>
@@ -14176,7 +14010,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>530</v>
       </c>
@@ -14217,7 +14051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>189</v>
       </c>
@@ -14273,7 +14107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -14335,7 +14169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>206</v>
       </c>
@@ -14394,7 +14228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>58</v>
       </c>
@@ -14453,7 +14287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -14503,7 +14337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>54</v>
       </c>
@@ -14562,7 +14396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>267</v>
       </c>
@@ -14621,7 +14455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>116</v>
       </c>
@@ -14677,7 +14511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>122</v>
       </c>
@@ -14736,7 +14570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>355</v>
       </c>
@@ -14791,12 +14625,8 @@
       <c r="X219" t="s">
         <v>27</v>
       </c>
-      <c r="AA219">
-        <f>(P219/100)*I219</f>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>417</v>
       </c>
@@ -14855,7 +14685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -14908,7 +14738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -14967,7 +14797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>28</v>
       </c>
@@ -15023,7 +14853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>325</v>
       </c>
@@ -15079,7 +14909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>311</v>
       </c>
@@ -15138,7 +14968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>407</v>
       </c>
@@ -15197,7 +15027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>527</v>
       </c>
@@ -15244,7 +15074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>156</v>
       </c>
@@ -15300,7 +15130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>63</v>
       </c>
@@ -15359,7 +15189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>281</v>
       </c>
@@ -15418,7 +15248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>170</v>
       </c>
@@ -15477,7 +15307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>525</v>
       </c>
@@ -15533,7 +15363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -15592,7 +15422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>532</v>
       </c>
@@ -15636,7 +15466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>261</v>
       </c>
@@ -15745,7 +15575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>552</v>
       </c>
@@ -15786,7 +15616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>548</v>
       </c>
@@ -15827,7 +15657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>581</v>
       </c>
@@ -15868,7 +15698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>602</v>
       </c>
@@ -15912,7 +15742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>544</v>
       </c>
@@ -15944,7 +15774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>583</v>
       </c>
@@ -15988,7 +15818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>585</v>
       </c>
@@ -16032,7 +15862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>600</v>
       </c>
@@ -16073,7 +15903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>592</v>
       </c>
@@ -16117,7 +15947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>546</v>
       </c>
@@ -16161,7 +15991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>570</v>
       </c>
@@ -16205,7 +16035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>606</v>
       </c>
@@ -16246,7 +16076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>633</v>
       </c>
@@ -16287,7 +16117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>637</v>
       </c>
@@ -16331,7 +16161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>608</v>
       </c>
@@ -16375,7 +16205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -16416,7 +16246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>640</v>
       </c>
@@ -16448,7 +16278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>609</v>
       </c>
@@ -16492,7 +16322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>617</v>
       </c>
@@ -16536,7 +16366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>619</v>
       </c>
@@ -16580,7 +16410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>590</v>
       </c>
@@ -16624,7 +16454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>566</v>
       </c>
@@ -16668,7 +16498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>564</v>
       </c>
@@ -16709,7 +16539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -16753,7 +16583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>550</v>
       </c>
@@ -16797,7 +16627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>621</v>
       </c>
@@ -16838,7 +16668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>623</v>
       </c>
@@ -16882,7 +16712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>604</v>
       </c>
@@ -16926,7 +16756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>631</v>
       </c>
@@ -16970,7 +16800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>586</v>
       </c>
@@ -17014,7 +16844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>588</v>
       </c>
@@ -17058,7 +16888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>598</v>
       </c>
@@ -17102,7 +16932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>596</v>
       </c>
@@ -17143,7 +16973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>616</v>
       </c>
@@ -17187,7 +17017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>579</v>
       </c>
@@ -17231,7 +17061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>614</v>
       </c>
@@ -17275,7 +17105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>629</v>
       </c>
@@ -17319,7 +17149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>638</v>
       </c>
@@ -17360,7 +17190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>558</v>
       </c>
@@ -17404,7 +17234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>576</v>
       </c>
@@ -17433,7 +17263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>574</v>
       </c>
@@ -17476,12 +17306,8 @@
       <c r="X277" t="s">
         <v>39</v>
       </c>
-      <c r="AA277">
-        <f>(P277/100)*I277</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>562</v>
       </c>
@@ -17525,7 +17351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>613</v>
       </c>
@@ -17569,7 +17395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>625</v>
       </c>
@@ -17613,7 +17439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>577</v>
       </c>
@@ -17657,7 +17483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>594</v>
       </c>
@@ -17698,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>568</v>
       </c>
@@ -17739,7 +17565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -17783,7 +17609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>572</v>
       </c>
@@ -17824,7 +17650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>626</v>
       </c>
@@ -17868,7 +17694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>611</v>
       </c>
@@ -17912,7 +17738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>556</v>
       </c>
@@ -17956,7 +17782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>554</v>
       </c>
@@ -17997,17 +17823,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA292" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:X289" xr:uid="{F01AF8D8-7B99-1647-8CD7-E59F3B682496}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Vertex"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X1" xr:uid="{8273B0B7-75AB-7043-A5E1-1E193EA41E1D}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C52CA6-2BDE-644C-A7D5-460A6D8C3D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8ADF6-77EB-2F46-91EC-919AAB9DF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2845,6 +2845,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3296,7 +3299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3339,15 +3342,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3375,6 +3380,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -3809,7 +3815,7 @@
       <c r="G2" t="s">
         <v>471</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>2015</v>
       </c>
       <c r="I2">
@@ -3862,7 +3868,7 @@
       <c r="G3" t="s">
         <v>354</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>2015</v>
       </c>
       <c r="I3">
@@ -3915,7 +3921,7 @@
       <c r="G4" t="s">
         <v>55</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>2015</v>
       </c>
       <c r="I4">
@@ -3968,7 +3974,7 @@
       <c r="G5" t="s">
         <v>501</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>2015</v>
       </c>
       <c r="I5">
@@ -4021,7 +4027,7 @@
       <c r="G6" t="s">
         <v>327</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>2015</v>
       </c>
       <c r="I6">
@@ -4077,7 +4083,7 @@
       <c r="G7" t="s">
         <v>437</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>2015</v>
       </c>
       <c r="I7">
@@ -4130,7 +4136,7 @@
       <c r="G8" t="s">
         <v>483</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>2015</v>
       </c>
       <c r="I8">
@@ -4174,7 +4180,7 @@
       <c r="G9" t="s">
         <v>336</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>2015</v>
       </c>
       <c r="I9">
@@ -4218,7 +4224,7 @@
       <c r="G10" t="s">
         <v>392</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>2015</v>
       </c>
       <c r="I10">
@@ -4271,7 +4277,7 @@
       <c r="G11" t="s">
         <v>394</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>2015</v>
       </c>
       <c r="I11">
@@ -4324,7 +4330,7 @@
       <c r="G12" t="s">
         <v>532</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>2015</v>
       </c>
       <c r="I12">
@@ -4371,7 +4377,7 @@
       <c r="G13" t="s">
         <v>507</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>2015</v>
       </c>
       <c r="I13">
@@ -4424,7 +4430,7 @@
       <c r="G14" t="s">
         <v>251</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>2015</v>
       </c>
       <c r="I14">
@@ -4477,7 +4483,7 @@
       <c r="G15" t="s">
         <v>396</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>2015</v>
       </c>
       <c r="I15">
@@ -4530,7 +4536,7 @@
       <c r="G16" t="s">
         <v>71</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>2015</v>
       </c>
       <c r="I16">
@@ -4583,7 +4589,7 @@
       <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>2015</v>
       </c>
       <c r="I17">
@@ -4636,7 +4642,7 @@
       <c r="G18" t="s">
         <v>459</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>2015</v>
       </c>
       <c r="I18">
@@ -4689,7 +4695,7 @@
       <c r="G19" t="s">
         <v>71</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>2015</v>
       </c>
       <c r="I19">
@@ -4742,7 +4748,7 @@
       <c r="G20" t="s">
         <v>47</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>2015</v>
       </c>
       <c r="I20">
@@ -4795,7 +4801,7 @@
       <c r="G21" t="s">
         <v>172</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>2015</v>
       </c>
       <c r="I21">
@@ -4848,7 +4854,7 @@
       <c r="G22" t="s">
         <v>429</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>2015</v>
       </c>
       <c r="I22">
@@ -4901,7 +4907,7 @@
       <c r="G23" t="s">
         <v>487</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>2015</v>
       </c>
       <c r="I23">
@@ -4954,7 +4960,7 @@
       <c r="G24" t="s">
         <v>418</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>2015</v>
       </c>
       <c r="I24">
@@ -5007,7 +5013,7 @@
       <c r="G25" t="s">
         <v>439</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>2015</v>
       </c>
       <c r="I25">
@@ -5060,7 +5066,7 @@
       <c r="G26" t="s">
         <v>473</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>2015</v>
       </c>
       <c r="I26">
@@ -5113,7 +5119,7 @@
       <c r="G27" t="s">
         <v>356</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>2015</v>
       </c>
       <c r="I27">
@@ -5166,7 +5172,7 @@
       <c r="G28" t="s">
         <v>431</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>2015</v>
       </c>
       <c r="I28">
@@ -5219,7 +5225,7 @@
       <c r="G29" t="s">
         <v>381</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>2015</v>
       </c>
       <c r="I29">
@@ -5272,7 +5278,7 @@
       <c r="G30" t="s">
         <v>71</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>2015</v>
       </c>
       <c r="I30">
@@ -5325,7 +5331,7 @@
       <c r="G31" t="s">
         <v>441</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>2015</v>
       </c>
       <c r="I31">
@@ -5378,7 +5384,7 @@
       <c r="G32" t="s">
         <v>445</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>2015</v>
       </c>
       <c r="I32">
@@ -5431,7 +5437,7 @@
       <c r="G33" t="s">
         <v>95</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>2015</v>
       </c>
       <c r="I33">
@@ -5484,7 +5490,7 @@
       <c r="G34" t="s">
         <v>447</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>2015</v>
       </c>
       <c r="I34">
@@ -5537,7 +5543,7 @@
       <c r="G35" t="s">
         <v>453</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>2015</v>
       </c>
       <c r="I35">
@@ -5593,7 +5599,7 @@
       <c r="G36" t="s">
         <v>385</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>2015</v>
       </c>
       <c r="I36">
@@ -5646,7 +5652,7 @@
       <c r="G37" t="s">
         <v>461</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>2015</v>
       </c>
       <c r="I37">
@@ -5699,7 +5705,7 @@
       <c r="G38" t="s">
         <v>340</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <v>2015</v>
       </c>
       <c r="I38">
@@ -5752,7 +5758,7 @@
       <c r="G39" t="s">
         <v>55</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>2015</v>
       </c>
       <c r="I39">
@@ -5805,7 +5811,7 @@
       <c r="G40" t="s">
         <v>495</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>2015</v>
       </c>
       <c r="I40">
@@ -5861,7 +5867,7 @@
       <c r="G41" t="s">
         <v>449</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>2015</v>
       </c>
       <c r="I41">
@@ -5914,7 +5920,7 @@
       <c r="G42" t="s">
         <v>398</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="5">
         <v>2015</v>
       </c>
       <c r="I42">
@@ -5967,7 +5973,7 @@
       <c r="G43" t="s">
         <v>342</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <v>2015</v>
       </c>
       <c r="I43">
@@ -6020,7 +6026,7 @@
       <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>2015</v>
       </c>
       <c r="I44">
@@ -6073,7 +6079,7 @@
       <c r="G45" t="s">
         <v>465</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <v>2015</v>
       </c>
       <c r="I45">
@@ -6126,7 +6132,7 @@
       <c r="G46" t="s">
         <v>387</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>2015</v>
       </c>
       <c r="I46">
@@ -6179,7 +6185,7 @@
       <c r="G47" t="s">
         <v>467</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>2015</v>
       </c>
       <c r="I47">
@@ -6232,7 +6238,7 @@
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>2015</v>
       </c>
       <c r="I48">
@@ -6276,7 +6282,7 @@
       <c r="G49" t="s">
         <v>421</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="5">
         <v>2015</v>
       </c>
       <c r="I49">
@@ -6329,7 +6335,7 @@
       <c r="G50" t="s">
         <v>922</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="5">
         <v>2015</v>
       </c>
       <c r="I50">
@@ -6382,7 +6388,7 @@
       <c r="G51" t="s">
         <v>389</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <v>2015</v>
       </c>
       <c r="I51">
@@ -6435,7 +6441,7 @@
       <c r="G52" t="s">
         <v>497</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="5">
         <v>2015</v>
       </c>
       <c r="I52">
@@ -6488,7 +6494,7 @@
       <c r="G53" t="s">
         <v>55</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="5">
         <v>2015</v>
       </c>
       <c r="I53">
@@ -6541,7 +6547,7 @@
       <c r="G54" t="s">
         <v>505</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="5">
         <v>2015</v>
       </c>
       <c r="I54">
@@ -6594,7 +6600,7 @@
       <c r="G55" t="s">
         <v>346</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <v>2015</v>
       </c>
       <c r="I55">
@@ -6638,7 +6644,7 @@
       <c r="G56" t="s">
         <v>51</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="5">
         <v>2015</v>
       </c>
       <c r="I56">
@@ -6691,7 +6697,7 @@
       <c r="G57" t="s">
         <v>490</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="5">
         <v>2015</v>
       </c>
       <c r="I57">
@@ -6744,7 +6750,7 @@
       <c r="G58" t="s">
         <v>433</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="5">
         <v>2016</v>
       </c>
       <c r="I58">
@@ -6791,7 +6797,7 @@
       <c r="G59" t="s">
         <v>443</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="5">
         <v>2016</v>
       </c>
       <c r="I59">
@@ -6838,7 +6844,7 @@
       <c r="G60" t="s">
         <v>170</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="5">
         <v>2016</v>
       </c>
       <c r="I60">
@@ -6885,7 +6891,7 @@
       <c r="G61" t="s">
         <v>142</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="5">
         <v>2016</v>
       </c>
       <c r="I61">
@@ -6932,7 +6938,7 @@
       <c r="G62" t="s">
         <v>236</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="5">
         <v>2016</v>
       </c>
       <c r="I62">
@@ -6979,7 +6985,7 @@
       <c r="G63" t="s">
         <v>441</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="5">
         <v>2016</v>
       </c>
       <c r="I63">
@@ -7026,7 +7032,7 @@
       <c r="G64" t="s">
         <v>107</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="5">
         <v>2016</v>
       </c>
       <c r="I64">
@@ -7073,7 +7079,7 @@
       <c r="G65" t="s">
         <v>298</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="5">
         <v>2016</v>
       </c>
       <c r="I65">
@@ -7120,7 +7126,7 @@
       <c r="G66" t="s">
         <v>509</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="5">
         <v>2016</v>
       </c>
       <c r="I66">
@@ -7167,7 +7173,7 @@
       <c r="G67" t="s">
         <v>333</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="5">
         <v>2016</v>
       </c>
       <c r="I67">
@@ -7214,7 +7220,7 @@
       <c r="G68" t="s">
         <v>333</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <v>2016</v>
       </c>
       <c r="I68">
@@ -7261,7 +7267,7 @@
       <c r="G69" t="s">
         <v>80</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="5">
         <v>2016</v>
       </c>
       <c r="I69">
@@ -7308,7 +7314,7 @@
       <c r="G70" t="s">
         <v>530</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="5">
         <v>2016</v>
       </c>
       <c r="I70">
@@ -7346,7 +7352,7 @@
       <c r="G71" t="s">
         <v>372</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <v>2016</v>
       </c>
       <c r="I71">
@@ -7393,7 +7399,7 @@
       <c r="G72" t="s">
         <v>374</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="5">
         <v>2016</v>
       </c>
       <c r="I72">
@@ -7440,7 +7446,7 @@
       <c r="G73" t="s">
         <v>350</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="5">
         <v>2016</v>
       </c>
       <c r="I73">
@@ -7487,7 +7493,7 @@
       <c r="G74" t="s">
         <v>414</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <v>2016</v>
       </c>
       <c r="I74">
@@ -7534,7 +7540,7 @@
       <c r="G75" t="s">
         <v>416</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <v>2016</v>
       </c>
       <c r="I75">
@@ -7581,7 +7587,7 @@
       <c r="G76" t="s">
         <v>352</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="5">
         <v>2016</v>
       </c>
       <c r="I76">
@@ -7628,7 +7634,7 @@
       <c r="G77" t="s">
         <v>219</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="5">
         <v>2016</v>
       </c>
       <c r="I77">
@@ -7675,7 +7681,7 @@
       <c r="G78" t="s">
         <v>479</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="5">
         <v>2016</v>
       </c>
       <c r="I78">
@@ -7722,7 +7728,7 @@
       <c r="G79" t="s">
         <v>183</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="5">
         <v>2016</v>
       </c>
       <c r="I79">
@@ -7769,7 +7775,7 @@
       <c r="G80" t="s">
         <v>376</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="5">
         <v>2016</v>
       </c>
       <c r="I80">
@@ -7816,7 +7822,7 @@
       <c r="G81" t="s">
         <v>317</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="5">
         <v>2016</v>
       </c>
       <c r="I81">
@@ -7863,7 +7869,7 @@
       <c r="G82" t="s">
         <v>469</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="5">
         <v>2017</v>
       </c>
       <c r="I82">
@@ -7913,7 +7919,7 @@
       <c r="G83" t="s">
         <v>404</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="5">
         <v>2017</v>
       </c>
       <c r="I83">
@@ -7960,7 +7966,7 @@
       <c r="G84" t="s">
         <v>39</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="5">
         <v>2017</v>
       </c>
       <c r="I84">
@@ -8010,7 +8016,7 @@
       <c r="G85" t="s">
         <v>475</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="5">
         <v>2017</v>
       </c>
       <c r="I85">
@@ -8060,7 +8066,7 @@
       <c r="G86" t="s">
         <v>307</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="5">
         <v>2017</v>
       </c>
       <c r="I86">
@@ -8110,7 +8116,7 @@
       <c r="G87" t="s">
         <v>528</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="5">
         <v>2017</v>
       </c>
       <c r="I87">
@@ -8148,7 +8154,7 @@
       <c r="G88" t="s">
         <v>266</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="5">
         <v>2017</v>
       </c>
       <c r="I88">
@@ -8195,7 +8201,7 @@
       <c r="G89" t="s">
         <v>215</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="5">
         <v>2017</v>
       </c>
       <c r="I89">
@@ -8245,7 +8251,7 @@
       <c r="G90" t="s">
         <v>121</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="5">
         <v>2017</v>
       </c>
       <c r="I90">
@@ -8295,7 +8301,7 @@
       <c r="G91" t="s">
         <v>157</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="5">
         <v>2017</v>
       </c>
       <c r="I91">
@@ -8345,7 +8351,7 @@
       <c r="G92" t="s">
         <v>128</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <v>2017</v>
       </c>
       <c r="I92">
@@ -8395,7 +8401,7 @@
       <c r="G93" t="s">
         <v>331</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="5">
         <v>2017</v>
       </c>
       <c r="I93">
@@ -8439,7 +8445,7 @@
       <c r="G94" t="s">
         <v>283</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="5">
         <v>2017</v>
       </c>
       <c r="I94">
@@ -8492,7 +8498,7 @@
       <c r="G95" t="s">
         <v>259</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="5">
         <v>2017</v>
       </c>
       <c r="I95">
@@ -8542,7 +8548,7 @@
       <c r="G96" t="s">
         <v>234</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="5">
         <v>2017</v>
       </c>
       <c r="I96">
@@ -8592,7 +8598,7 @@
       <c r="G97" t="s">
         <v>105</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="5">
         <v>2017</v>
       </c>
       <c r="I97">
@@ -8642,7 +8648,7 @@
       <c r="G98" t="s">
         <v>212</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="5">
         <v>2017</v>
       </c>
       <c r="I98">
@@ -8689,7 +8695,7 @@
       <c r="G99" t="s">
         <v>309</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="5">
         <v>2017</v>
       </c>
       <c r="I99">
@@ -8739,7 +8745,7 @@
       <c r="G100" t="s">
         <v>321</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="5">
         <v>2017</v>
       </c>
       <c r="I100">
@@ -8789,7 +8795,7 @@
       <c r="G101" t="s">
         <v>189</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="5">
         <v>2017</v>
       </c>
       <c r="I101">
@@ -8839,7 +8845,7 @@
       <c r="G102" t="s">
         <v>413</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="5">
         <v>2017</v>
       </c>
       <c r="I102">
@@ -8886,7 +8892,7 @@
       <c r="G103" t="s">
         <v>273</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="5">
         <v>2017</v>
       </c>
       <c r="I103">
@@ -8936,7 +8942,7 @@
       <c r="G104" t="s">
         <v>324</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="5">
         <v>2017</v>
       </c>
       <c r="I104">
@@ -8986,7 +8992,7 @@
       <c r="G105" t="s">
         <v>146</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="5">
         <v>2017</v>
       </c>
       <c r="I105">
@@ -9036,7 +9042,7 @@
       <c r="G106" t="s">
         <v>223</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="5">
         <v>2017</v>
       </c>
       <c r="I106">
@@ -9086,7 +9092,7 @@
       <c r="G107" t="s">
         <v>264</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="5">
         <v>2017</v>
       </c>
       <c r="I107">
@@ -9136,7 +9142,7 @@
       <c r="G108" t="s">
         <v>242</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="5">
         <v>2017</v>
       </c>
       <c r="I108">
@@ -9186,7 +9192,7 @@
       <c r="G109" t="s">
         <v>455</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="5">
         <v>2017</v>
       </c>
       <c r="I109">
@@ -9236,7 +9242,7 @@
       <c r="G110" t="s">
         <v>24</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="5">
         <v>2017</v>
       </c>
       <c r="I110">
@@ -9286,7 +9292,7 @@
       <c r="G111" t="s">
         <v>282</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="5">
         <v>2017</v>
       </c>
       <c r="I111">
@@ -9336,7 +9342,7 @@
       <c r="G112" t="s">
         <v>232</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="5">
         <v>2017</v>
       </c>
       <c r="I112">
@@ -9386,7 +9392,7 @@
       <c r="G113" t="s">
         <v>367</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="5">
         <v>2017</v>
       </c>
       <c r="I113">
@@ -9436,7 +9442,7 @@
       <c r="G114" t="s">
         <v>159</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="5">
         <v>2017</v>
       </c>
       <c r="I114">
@@ -9483,7 +9489,7 @@
       <c r="G115" t="s">
         <v>78</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="5">
         <v>2017</v>
       </c>
       <c r="I115">
@@ -9533,7 +9539,7 @@
       <c r="G116" t="s">
         <v>264</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="5">
         <v>2017</v>
       </c>
       <c r="I116">
@@ -9583,7 +9589,7 @@
       <c r="G117" t="s">
         <v>187</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="5">
         <v>2017</v>
       </c>
       <c r="I117">
@@ -9633,7 +9639,7 @@
       <c r="G118" t="s">
         <v>159</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="5">
         <v>2017</v>
       </c>
       <c r="I118">
@@ -9683,7 +9689,7 @@
       <c r="G119" t="s">
         <v>596</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="5">
         <v>2017</v>
       </c>
       <c r="I119">
@@ -9733,7 +9739,7 @@
       <c r="G120" t="s">
         <v>291</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="5">
         <v>2017</v>
       </c>
       <c r="I120">
@@ -9783,7 +9789,7 @@
       <c r="G121" t="s">
         <v>499</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="5">
         <v>2017</v>
       </c>
       <c r="I121">
@@ -9833,7 +9839,7 @@
       <c r="G122" t="s">
         <v>189</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="5">
         <v>2017</v>
       </c>
       <c r="I122">
@@ -9883,7 +9889,7 @@
       <c r="G123" t="s">
         <v>197</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="5">
         <v>2017</v>
       </c>
       <c r="I123">
@@ -9933,7 +9939,7 @@
       <c r="G124" t="s">
         <v>238</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="5">
         <v>2017</v>
       </c>
       <c r="I124">
@@ -9983,7 +9989,7 @@
       <c r="G125" t="s">
         <v>60</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="5">
         <v>2017</v>
       </c>
       <c r="I125">
@@ -10033,7 +10039,7 @@
       <c r="G126" t="s">
         <v>82</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="5">
         <v>2017</v>
       </c>
       <c r="I126">
@@ -10086,7 +10092,7 @@
       <c r="G127" t="s">
         <v>36</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="5">
         <v>2017</v>
       </c>
       <c r="I127">
@@ -10136,7 +10142,7 @@
       <c r="G128" t="s">
         <v>369</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="5">
         <v>2017</v>
       </c>
       <c r="I128">
@@ -10186,7 +10192,7 @@
       <c r="G129" t="s">
         <v>463</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="5">
         <v>2018</v>
       </c>
       <c r="I129">
@@ -10248,7 +10254,7 @@
       <c r="G130" t="s">
         <v>168</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="5">
         <v>2018</v>
       </c>
       <c r="I130">
@@ -10310,7 +10316,7 @@
       <c r="G131" t="s">
         <v>168</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="5">
         <v>2018</v>
       </c>
       <c r="I131">
@@ -10375,7 +10381,7 @@
       <c r="G132" t="s">
         <v>360</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="5">
         <v>2018</v>
       </c>
       <c r="I132">
@@ -10434,7 +10440,7 @@
       <c r="G133" t="s">
         <v>313</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="5">
         <v>2018</v>
       </c>
       <c r="I133">
@@ -10496,7 +10502,7 @@
       <c r="G134" t="s">
         <v>125</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="5">
         <v>2018</v>
       </c>
       <c r="I134">
@@ -10558,7 +10564,7 @@
       <c r="G135" t="s">
         <v>140</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="5">
         <v>2018</v>
       </c>
       <c r="I135">
@@ -10620,7 +10626,7 @@
       <c r="G136" t="s">
         <v>481</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="5">
         <v>2018</v>
       </c>
       <c r="I136">
@@ -10682,7 +10688,7 @@
       <c r="G137" t="s">
         <v>191</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="5">
         <v>2018</v>
       </c>
       <c r="I137">
@@ -10744,7 +10750,7 @@
       <c r="G138" t="s">
         <v>181</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="5">
         <v>2018</v>
       </c>
       <c r="I138">
@@ -10806,7 +10812,7 @@
       <c r="G139" t="s">
         <v>411</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="5">
         <v>2018</v>
       </c>
       <c r="I139">
@@ -10865,7 +10871,7 @@
       <c r="G140" t="s">
         <v>526</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="5">
         <v>2018</v>
       </c>
       <c r="I140">
@@ -10915,7 +10921,7 @@
       <c r="G141" t="s">
         <v>176</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="5">
         <v>2018</v>
       </c>
       <c r="I141">
@@ -10977,7 +10983,7 @@
       <c r="G142" t="s">
         <v>138</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="5">
         <v>2018</v>
       </c>
       <c r="I142">
@@ -11039,7 +11045,7 @@
       <c r="G143" t="s">
         <v>168</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="5">
         <v>2018</v>
       </c>
       <c r="I143">
@@ -11101,7 +11107,7 @@
       <c r="G144" t="s">
         <v>76</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="5">
         <v>2018</v>
       </c>
       <c r="I144">
@@ -11163,7 +11169,7 @@
       <c r="G145" t="s">
         <v>87</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="5">
         <v>2018</v>
       </c>
       <c r="I145">
@@ -11225,7 +11231,7 @@
       <c r="G146" t="s">
         <v>240</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="5">
         <v>2018</v>
       </c>
       <c r="I146">
@@ -11287,7 +11293,7 @@
       <c r="G147" t="s">
         <v>148</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="5">
         <v>2018</v>
       </c>
       <c r="I147">
@@ -11349,7 +11355,7 @@
       <c r="G148" t="s">
         <v>477</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="5">
         <v>2018</v>
       </c>
       <c r="I148">
@@ -11408,7 +11414,7 @@
       <c r="G149" t="s">
         <v>195</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="5">
         <v>2018</v>
       </c>
       <c r="I149">
@@ -11470,7 +11476,7 @@
       <c r="G150" t="s">
         <v>227</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="5">
         <v>2018</v>
       </c>
       <c r="I150">
@@ -11532,7 +11538,7 @@
       <c r="G151" t="s">
         <v>366</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="5">
         <v>2018</v>
       </c>
       <c r="I151">
@@ -11594,7 +11600,7 @@
       <c r="G152" t="s">
         <v>315</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="5">
         <v>2018</v>
       </c>
       <c r="I152">
@@ -11656,7 +11662,7 @@
       <c r="G153" t="s">
         <v>426</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="5">
         <v>2018</v>
       </c>
       <c r="I153">
@@ -11718,7 +11724,7 @@
       <c r="G154" t="s">
         <v>271</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="5">
         <v>2018</v>
       </c>
       <c r="I154">
@@ -11780,7 +11786,7 @@
       <c r="G155" t="s">
         <v>402</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="5">
         <v>2018</v>
       </c>
       <c r="I155">
@@ -11842,7 +11848,7 @@
       <c r="G156" t="s">
         <v>137</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="5">
         <v>2018</v>
       </c>
       <c r="I156">
@@ -11904,7 +11910,7 @@
       <c r="G157" t="s">
         <v>492</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="5">
         <v>2018</v>
       </c>
       <c r="I157">
@@ -11966,7 +11972,7 @@
       <c r="G158" t="s">
         <v>424</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="5">
         <v>2018</v>
       </c>
       <c r="I158">
@@ -12025,7 +12031,7 @@
       <c r="G159" t="s">
         <v>44</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="5">
         <v>2018</v>
       </c>
       <c r="I159">
@@ -12087,7 +12093,7 @@
       <c r="G160" t="s">
         <v>176</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="5">
         <v>2018</v>
       </c>
       <c r="I160">
@@ -12149,7 +12155,7 @@
       <c r="G161" t="s">
         <v>378</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="5">
         <v>2018</v>
       </c>
       <c r="I161">
@@ -12211,7 +12217,7 @@
       <c r="G162" t="s">
         <v>451</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="5">
         <v>2018</v>
       </c>
       <c r="I162">
@@ -12273,7 +12279,7 @@
       <c r="G163" t="s">
         <v>296</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="5">
         <v>2018</v>
       </c>
       <c r="I163">
@@ -12338,7 +12344,7 @@
       <c r="G164" t="s">
         <v>286</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="5">
         <v>2018</v>
       </c>
       <c r="I164">
@@ -12400,7 +12406,7 @@
       <c r="G165" t="s">
         <v>230</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="5">
         <v>2018</v>
       </c>
       <c r="I165">
@@ -12462,7 +12468,7 @@
       <c r="G166" t="s">
         <v>253</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="5">
         <v>2018</v>
       </c>
       <c r="I166">
@@ -12524,7 +12530,7 @@
       <c r="G167" t="s">
         <v>207</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="5">
         <v>2018</v>
       </c>
       <c r="I167">
@@ -12583,7 +12589,7 @@
       <c r="G168" t="s">
         <v>92</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="5">
         <v>2018</v>
       </c>
       <c r="I168">
@@ -12645,7 +12651,7 @@
       <c r="G169" t="s">
         <v>178</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="5">
         <v>2018</v>
       </c>
       <c r="I169">
@@ -12707,7 +12713,7 @@
       <c r="G170" t="s">
         <v>67</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="5">
         <v>2018</v>
       </c>
       <c r="I170">
@@ -12769,7 +12775,7 @@
       <c r="G171" t="s">
         <v>311</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="5">
         <v>2018</v>
       </c>
       <c r="I171">
@@ -12831,7 +12837,7 @@
       <c r="G172" t="s">
         <v>302</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="5">
         <v>2018</v>
       </c>
       <c r="I172">
@@ -12893,7 +12899,7 @@
       <c r="G173" t="s">
         <v>95</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="5">
         <v>2018</v>
       </c>
       <c r="I173">
@@ -12958,7 +12964,7 @@
       <c r="G174" t="s">
         <v>131</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="5">
         <v>2018</v>
       </c>
       <c r="I174">
@@ -13020,7 +13026,7 @@
       <c r="G175" t="s">
         <v>199</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="5">
         <v>2018</v>
       </c>
       <c r="I175">
@@ -13082,7 +13088,7 @@
       <c r="G176" t="s">
         <v>100</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="5">
         <v>2018</v>
       </c>
       <c r="I176">
@@ -13144,7 +13150,7 @@
       <c r="G177" t="s">
         <v>246</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="5">
         <v>2018</v>
       </c>
       <c r="I177">
@@ -13206,7 +13212,7 @@
       <c r="G178" t="s">
         <v>103</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="5">
         <v>2018</v>
       </c>
       <c r="I178">
@@ -13268,7 +13274,7 @@
       <c r="G179" t="s">
         <v>151</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="5">
         <v>2018</v>
       </c>
       <c r="I179">
@@ -13330,7 +13336,7 @@
       <c r="G180" t="s">
         <v>97</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="5">
         <v>2018</v>
       </c>
       <c r="I180">
@@ -13392,7 +13398,7 @@
       <c r="G181" t="s">
         <v>161</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="5">
         <v>2018</v>
       </c>
       <c r="I181">
@@ -13454,7 +13460,7 @@
       <c r="G182" t="s">
         <v>73</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="5">
         <v>2018</v>
       </c>
       <c r="I182">
@@ -13516,7 +13522,7 @@
       <c r="G183" t="s">
         <v>363</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="5">
         <v>2018</v>
       </c>
       <c r="I183">
@@ -13578,7 +13584,7 @@
       <c r="G184" t="s">
         <v>457</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="5">
         <v>2018</v>
       </c>
       <c r="I184">
@@ -13640,7 +13646,7 @@
       <c r="G185" t="s">
         <v>289</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="5">
         <v>2018</v>
       </c>
       <c r="I185">
@@ -13702,7 +13708,7 @@
       <c r="G186" t="s">
         <v>111</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="5">
         <v>2018</v>
       </c>
       <c r="I186">
@@ -13764,7 +13770,7 @@
       <c r="G187" t="s">
         <v>133</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="5">
         <v>2018</v>
       </c>
       <c r="I187">
@@ -13826,7 +13832,7 @@
       <c r="G188" t="s">
         <v>513</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="5">
         <v>2018</v>
       </c>
       <c r="I188">
@@ -13888,7 +13894,7 @@
       <c r="G189" t="s">
         <v>166</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="5">
         <v>2019</v>
       </c>
       <c r="I189">
@@ -13950,7 +13956,7 @@
       <c r="G190" t="s">
         <v>29</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="5">
         <v>2019</v>
       </c>
       <c r="I190">
@@ -14009,7 +14015,7 @@
       <c r="G191" t="s">
         <v>185</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="5">
         <v>2019</v>
       </c>
       <c r="I191">
@@ -14071,7 +14077,7 @@
       <c r="G192" t="s">
         <v>261</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="5">
         <v>2019</v>
       </c>
       <c r="I192">
@@ -14133,7 +14139,7 @@
       <c r="G193" t="s">
         <v>319</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="5">
         <v>2019</v>
       </c>
       <c r="I193">
@@ -14195,7 +14201,7 @@
       <c r="G194" t="s">
         <v>406</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="5">
         <v>2019</v>
       </c>
       <c r="I194">
@@ -14254,7 +14260,7 @@
       <c r="G195" t="s">
         <v>123</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="5">
         <v>2019</v>
       </c>
       <c r="I195">
@@ -14316,7 +14322,7 @@
       <c r="G196" t="s">
         <v>55</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="5">
         <v>2019</v>
       </c>
       <c r="I196">
@@ -14378,7 +14384,7 @@
       <c r="G197" t="s">
         <v>135</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="5">
         <v>2019</v>
       </c>
       <c r="I197">
@@ -14440,7 +14446,7 @@
       <c r="G198" t="s">
         <v>517</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="5">
         <v>2019</v>
       </c>
       <c r="I198">
@@ -14490,7 +14496,7 @@
       <c r="G199" t="s">
         <v>225</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="5">
         <v>2019</v>
       </c>
       <c r="I199">
@@ -14555,7 +14561,7 @@
       <c r="G200" t="s">
         <v>280</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="5">
         <v>2019</v>
       </c>
       <c r="I200">
@@ -14617,7 +14623,7 @@
       <c r="G201" t="s">
         <v>520</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="5">
         <v>2019</v>
       </c>
       <c r="I201">
@@ -14664,7 +14670,7 @@
       <c r="G202" t="s">
         <v>515</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="5">
         <v>2019</v>
       </c>
       <c r="I202">
@@ -14723,7 +14729,7 @@
       <c r="G203" t="s">
         <v>522</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="5">
         <v>2019</v>
       </c>
       <c r="I203">
@@ -14773,7 +14779,7 @@
       <c r="G204" t="s">
         <v>256</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="5">
         <v>2019</v>
       </c>
       <c r="I204">
@@ -14835,7 +14841,7 @@
       <c r="G205" t="s">
         <v>329</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="5">
         <v>2019</v>
       </c>
       <c r="I205">
@@ -14897,7 +14903,7 @@
       <c r="G206" t="s">
         <v>109</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="5">
         <v>2019</v>
       </c>
       <c r="I206">
@@ -14959,7 +14965,7 @@
       <c r="G207" t="s">
         <v>407</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="5">
         <v>2019</v>
       </c>
       <c r="I207">
@@ -15018,7 +15024,7 @@
       <c r="G208" t="s">
         <v>174</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="5">
         <v>2019</v>
       </c>
       <c r="I208">
@@ -15080,7 +15086,7 @@
       <c r="G209" t="s">
         <v>305</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="5">
         <v>2019</v>
       </c>
       <c r="I209">
@@ -15142,7 +15148,7 @@
       <c r="G210" t="s">
         <v>348</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="5">
         <v>2019</v>
       </c>
       <c r="I210">
@@ -15201,7 +15207,7 @@
       <c r="G211" t="s">
         <v>217</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="5">
         <v>2019</v>
       </c>
       <c r="I211">
@@ -15263,7 +15269,7 @@
       <c r="G212" t="s">
         <v>57</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="5">
         <v>2019</v>
       </c>
       <c r="I212">
@@ -15325,7 +15331,7 @@
       <c r="G213" t="s">
         <v>261</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="5">
         <v>2019</v>
       </c>
       <c r="I213">
@@ -15387,7 +15393,7 @@
       <c r="G214" t="s">
         <v>400</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="5">
         <v>2019</v>
       </c>
       <c r="I214">
@@ -15449,7 +15455,7 @@
       <c r="G215" t="s">
         <v>209</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="5">
         <v>2019</v>
       </c>
       <c r="I215">
@@ -15511,7 +15517,7 @@
       <c r="G216" t="s">
         <v>42</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="5">
         <v>2019</v>
       </c>
       <c r="I216">
@@ -15567,7 +15573,7 @@
       <c r="G217" t="s">
         <v>300</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="5">
         <v>2019</v>
       </c>
       <c r="I217">
@@ -15629,7 +15635,7 @@
       <c r="G218" t="s">
         <v>409</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="5">
         <v>2019</v>
       </c>
       <c r="I218">
@@ -15691,7 +15697,7 @@
       <c r="G219" t="s">
         <v>118</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="5">
         <v>2019</v>
       </c>
       <c r="I219">
@@ -15753,7 +15759,7 @@
       <c r="G220" t="s">
         <v>193</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="5">
         <v>2019</v>
       </c>
       <c r="I220">
@@ -15815,7 +15821,7 @@
       <c r="G221" t="s">
         <v>202</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="5">
         <v>2019</v>
       </c>
       <c r="I221">
@@ -15877,7 +15883,7 @@
       <c r="G222" t="s">
         <v>485</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="5">
         <v>2019</v>
       </c>
       <c r="I222">
@@ -15936,7 +15942,7 @@
       <c r="G223" t="s">
         <v>249</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="5">
         <v>2019</v>
       </c>
       <c r="I223">
@@ -15998,7 +16004,7 @@
       <c r="G224" t="s">
         <v>115</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="5">
         <v>2019</v>
       </c>
       <c r="I224">
@@ -16063,7 +16069,7 @@
       <c r="G225" t="s">
         <v>524</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="5">
         <v>2019</v>
       </c>
       <c r="I225">
@@ -16107,7 +16113,7 @@
       <c r="G226" t="s">
         <v>95</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="5">
         <v>2019</v>
       </c>
       <c r="I226">
@@ -16166,7 +16172,7 @@
       <c r="G227" t="s">
         <v>244</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="5">
         <v>2019</v>
       </c>
       <c r="I227">
@@ -16228,7 +16234,7 @@
       <c r="G228" t="s">
         <v>118</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="5">
         <v>2019</v>
       </c>
       <c r="I228">
@@ -16290,7 +16296,7 @@
       <c r="G229" t="s">
         <v>164</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="5">
         <v>2019</v>
       </c>
       <c r="I229">
@@ -16352,7 +16358,7 @@
       <c r="G230" t="s">
         <v>155</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="5">
         <v>2019</v>
       </c>
       <c r="I230">
@@ -16411,7 +16417,7 @@
       <c r="G231" t="s">
         <v>276</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="5">
         <v>2019</v>
       </c>
       <c r="I231">
@@ -16473,7 +16479,7 @@
       <c r="G232" t="s">
         <v>294</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="5">
         <v>2019</v>
       </c>
       <c r="I232">
@@ -16529,7 +16535,7 @@
       <c r="G233" t="s">
         <v>236</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="5">
         <v>2019</v>
       </c>
       <c r="I233">
@@ -16591,7 +16597,7 @@
       <c r="G234" t="s">
         <v>204</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="5">
         <v>2019</v>
       </c>
       <c r="I234">
@@ -16653,7 +16659,7 @@
       <c r="G235" t="s">
         <v>71</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="5">
         <v>2019</v>
       </c>
       <c r="I235">
@@ -16715,7 +16721,7 @@
       <c r="G236" t="s">
         <v>63</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="5">
         <v>2019</v>
       </c>
       <c r="I236">
@@ -16777,7 +16783,7 @@
       <c r="G237" t="s">
         <v>534</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="5">
         <v>2020</v>
       </c>
       <c r="I237">
@@ -16815,7 +16821,7 @@
       <c r="G238" t="s">
         <v>536</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="5">
         <v>2020</v>
       </c>
       <c r="I238">
@@ -16865,7 +16871,7 @@
       <c r="G239" t="s">
         <v>538</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="5">
         <v>2020</v>
       </c>
       <c r="I239">
@@ -16915,7 +16921,7 @@
       <c r="G240" t="s">
         <v>540</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="5">
         <v>2020</v>
       </c>
       <c r="I240">
@@ -16965,7 +16971,7 @@
       <c r="G241" t="s">
         <v>542</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="5">
         <v>2020</v>
       </c>
       <c r="I241">
@@ -17015,7 +17021,7 @@
       <c r="G242" t="s">
         <v>544</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="5">
         <v>2020</v>
       </c>
       <c r="I242">
@@ -17062,7 +17068,7 @@
       <c r="G243" t="s">
         <v>546</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="5">
         <v>2020</v>
       </c>
       <c r="I243">
@@ -17112,7 +17118,7 @@
       <c r="G244" t="s">
         <v>548</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="5">
         <v>2020</v>
       </c>
       <c r="I244">
@@ -17162,7 +17168,7 @@
       <c r="G245" t="s">
         <v>550</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="5">
         <v>2020</v>
       </c>
       <c r="I245">
@@ -17212,7 +17218,7 @@
       <c r="G246" t="s">
         <v>552</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="5">
         <v>2020</v>
       </c>
       <c r="I246">
@@ -17262,7 +17268,7 @@
       <c r="G247" t="s">
         <v>554</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="5">
         <v>2020</v>
       </c>
       <c r="I247">
@@ -17309,7 +17315,7 @@
       <c r="G248" t="s">
         <v>556</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="5">
         <v>2020</v>
       </c>
       <c r="I248">
@@ -17359,7 +17365,7 @@
       <c r="G249" t="s">
         <v>558</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="5">
         <v>2020</v>
       </c>
       <c r="I249">
@@ -17409,7 +17415,7 @@
       <c r="G250" t="s">
         <v>560</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="5">
         <v>2020</v>
       </c>
       <c r="I250">
@@ -17459,7 +17465,7 @@
       <c r="G251" t="s">
         <v>562</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="5">
         <v>2020</v>
       </c>
       <c r="I251">
@@ -17509,7 +17515,7 @@
       <c r="G252" t="s">
         <v>564</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="5">
         <v>2020</v>
       </c>
       <c r="I252">
@@ -17559,7 +17565,7 @@
       <c r="G253" t="s">
         <v>552</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="5">
         <v>2020</v>
       </c>
       <c r="I253">
@@ -17594,7 +17600,7 @@
       <c r="G254" t="s">
         <v>567</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="5">
         <v>2020</v>
       </c>
       <c r="I254">
@@ -17644,7 +17650,7 @@
       <c r="G255" t="s">
         <v>569</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="5">
         <v>2020</v>
       </c>
       <c r="I255">
@@ -17694,7 +17700,7 @@
       <c r="G256" t="s">
         <v>571</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="5">
         <v>2020</v>
       </c>
       <c r="I256">
@@ -17744,7 +17750,7 @@
       <c r="G257" t="s">
         <v>573</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="5">
         <v>2020</v>
       </c>
       <c r="I257">
@@ -17794,7 +17800,7 @@
       <c r="G258" t="s">
         <v>528</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="5">
         <v>2020</v>
       </c>
       <c r="I258">
@@ -17844,7 +17850,7 @@
       <c r="G259" t="s">
         <v>576</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="5">
         <v>2020</v>
       </c>
       <c r="I259">
@@ -17894,7 +17900,7 @@
       <c r="G260" t="s">
         <v>578</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="5">
         <v>2020</v>
       </c>
       <c r="I260">
@@ -17941,7 +17947,7 @@
       <c r="G261" t="s">
         <v>580</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="5">
         <v>2020</v>
       </c>
       <c r="I261">
@@ -17991,7 +17997,7 @@
       <c r="G262" t="s">
         <v>582</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="5">
         <v>2020</v>
       </c>
       <c r="I262">
@@ -18041,7 +18047,7 @@
       <c r="G263" t="s">
         <v>584</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="5">
         <v>2020</v>
       </c>
       <c r="I263">
@@ -18091,7 +18097,7 @@
       <c r="G264" t="s">
         <v>586</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="5">
         <v>2020</v>
       </c>
       <c r="I264">
@@ -18138,7 +18144,7 @@
       <c r="G265" t="s">
         <v>588</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="5">
         <v>2020</v>
       </c>
       <c r="I265">
@@ -18188,7 +18194,7 @@
       <c r="G266" t="s">
         <v>590</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="5">
         <v>2020</v>
       </c>
       <c r="I266">
@@ -18238,7 +18244,7 @@
       <c r="G267" t="s">
         <v>592</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="5">
         <v>2020</v>
       </c>
       <c r="I267">
@@ -18288,7 +18294,7 @@
       <c r="G268" t="s">
         <v>594</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="5">
         <v>2020</v>
       </c>
       <c r="I268">
@@ -18338,7 +18344,7 @@
       <c r="G269" t="s">
         <v>596</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="5">
         <v>2020</v>
       </c>
       <c r="I269">
@@ -18388,7 +18394,7 @@
       <c r="G270" t="s">
         <v>536</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="5">
         <v>2020</v>
       </c>
       <c r="I270">
@@ -18438,7 +18444,7 @@
       <c r="G271" t="s">
         <v>599</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="5">
         <v>2020</v>
       </c>
       <c r="I271">
@@ -18488,7 +18494,7 @@
       <c r="G272" t="s">
         <v>601</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="5">
         <v>2020</v>
       </c>
       <c r="I272">
@@ -18538,7 +18544,7 @@
       <c r="G273" t="s">
         <v>540</v>
       </c>
-      <c r="H273">
+      <c r="H273" s="5">
         <v>2020</v>
       </c>
       <c r="I273">
@@ -18588,7 +18594,7 @@
       <c r="G274" t="s">
         <v>604</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="5">
         <v>2020</v>
       </c>
       <c r="I274">
@@ -18638,7 +18644,7 @@
       <c r="G275" t="s">
         <v>560</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="5">
         <v>2020</v>
       </c>
       <c r="I275">
@@ -18688,7 +18694,7 @@
       <c r="G276" t="s">
         <v>607</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="5">
         <v>2020</v>
       </c>
       <c r="I276">
@@ -18738,7 +18744,7 @@
       <c r="G277" t="s">
         <v>609</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="5">
         <v>2020</v>
       </c>
       <c r="I277">
@@ -18788,7 +18794,7 @@
       <c r="G278" t="s">
         <v>611</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="5">
         <v>2020</v>
       </c>
       <c r="I278">
@@ -18838,7 +18844,7 @@
       <c r="G279" t="s">
         <v>613</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="5">
         <v>2020</v>
       </c>
       <c r="I279">
@@ -18888,7 +18894,7 @@
       <c r="G280" t="s">
         <v>613</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="5">
         <v>2020</v>
       </c>
       <c r="I280">
@@ -18938,7 +18944,7 @@
       <c r="G281" t="s">
         <v>554</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="5">
         <v>2020</v>
       </c>
       <c r="I281">
@@ -18988,7 +18994,7 @@
       <c r="G282" t="s">
         <v>617</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="5">
         <v>2020</v>
       </c>
       <c r="I282">
@@ -19038,7 +19044,7 @@
       <c r="G283" t="s">
         <v>619</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="5">
         <v>2020</v>
       </c>
       <c r="I283">
@@ -19088,7 +19094,7 @@
       <c r="G284" t="s">
         <v>621</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="5">
         <v>2020</v>
       </c>
       <c r="I284">
@@ -19138,7 +19144,7 @@
       <c r="G285" t="s">
         <v>623</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="5">
         <v>2020</v>
       </c>
       <c r="I285">
@@ -19188,7 +19194,7 @@
       <c r="G286" t="s">
         <v>625</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="5">
         <v>2020</v>
       </c>
       <c r="I286">
@@ -19238,7 +19244,7 @@
       <c r="G287" t="s">
         <v>223</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="5">
         <v>2020</v>
       </c>
       <c r="I287">
@@ -19288,7 +19294,7 @@
       <c r="G288" t="s">
         <v>628</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="5">
         <v>2020</v>
       </c>
       <c r="I288">
@@ -19335,7 +19341,7 @@
       <c r="G289" t="s">
         <v>630</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="5">
         <v>2020</v>
       </c>
       <c r="I289">

--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8ADF6-77EB-2F46-91EC-919AAB9DF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A372D-5F3C-CB4C-8BF9-DD7A7FFB8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="934">
   <si>
     <t>Brand_Name</t>
   </si>
@@ -1183,9 +1183,6 @@
   </si>
   <si>
     <t>PRAXBIND</t>
-  </si>
-  <si>
-    <t>(or Hematology)</t>
   </si>
   <si>
     <t>Other Cardiovascular Disease</t>
@@ -3711,7 +3708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3727,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3736,13 +3733,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -3798,10 +3795,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
         <v>163</v>
@@ -3810,10 +3807,10 @@
         <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H2" s="5">
         <v>2015</v>
@@ -3854,7 +3851,7 @@
         <v>353</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -3904,10 +3901,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -3957,22 +3954,22 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H5" s="5">
         <v>2015</v>
@@ -4013,10 +4010,10 @@
         <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E6" t="s">
         <v>326</v>
@@ -4063,25 +4060,25 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C7" t="s">
         <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" t="s">
         <v>358</v>
       </c>
       <c r="F7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H7" s="5">
         <v>2015</v>
@@ -4119,10 +4116,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -4131,10 +4128,10 @@
         <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H8" s="5">
         <v>2015</v>
@@ -4166,7 +4163,7 @@
         <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -4175,7 +4172,7 @@
         <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G9" t="s">
         <v>336</v>
@@ -4207,22 +4204,22 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C10" t="s">
         <v>153</v>
       </c>
       <c r="E10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" t="s">
         <v>391</v>
-      </c>
-      <c r="F10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" t="s">
-        <v>392</v>
       </c>
       <c r="H10" s="5">
         <v>2015</v>
@@ -4260,22 +4257,22 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C11" t="s">
         <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H11" s="5">
         <v>2015</v>
@@ -4313,22 +4310,22 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H12" s="5">
         <v>2015</v>
@@ -4360,22 +4357,22 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H13" s="5">
         <v>2015</v>
@@ -4416,16 +4413,16 @@
         <v>250</v>
       </c>
       <c r="B14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G14" t="s">
         <v>251</v>
@@ -4466,22 +4463,22 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" t="s">
+        <v>630</v>
+      </c>
+      <c r="E15" t="s">
+        <v>798</v>
+      </c>
+      <c r="F15" t="s">
+        <v>798</v>
+      </c>
+      <c r="G15" t="s">
         <v>395</v>
-      </c>
-      <c r="B15" t="s">
-        <v>679</v>
-      </c>
-      <c r="C15" t="s">
-        <v>631</v>
-      </c>
-      <c r="E15" t="s">
-        <v>799</v>
-      </c>
-      <c r="F15" t="s">
-        <v>799</v>
-      </c>
-      <c r="G15" t="s">
-        <v>396</v>
       </c>
       <c r="H15" s="5">
         <v>2015</v>
@@ -4522,7 +4519,7 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -4575,7 +4572,7 @@
         <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -4625,22 +4622,22 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C18" t="s">
         <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H18" s="5">
         <v>2015</v>
@@ -4681,7 +4678,7 @@
         <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -4734,10 +4731,10 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -4787,10 +4784,10 @@
         <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -4837,10 +4834,10 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -4852,7 +4849,7 @@
         <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H22" s="5">
         <v>2015</v>
@@ -4890,10 +4887,10 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C23" t="s">
         <v>90</v>
@@ -4902,10 +4899,10 @@
         <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H23" s="5">
         <v>2015</v>
@@ -4943,10 +4940,10 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -4955,10 +4952,10 @@
         <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H24" s="5">
         <v>2015</v>
@@ -4996,22 +4993,22 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C25" t="s">
         <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H25" s="5">
         <v>2015</v>
@@ -5049,22 +5046,22 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C26" t="s">
         <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F26" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H26" s="5">
         <v>2015</v>
@@ -5105,7 +5102,7 @@
         <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
@@ -5114,7 +5111,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G27" t="s">
         <v>356</v>
@@ -5155,10 +5152,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -5167,10 +5164,10 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H28" s="5">
         <v>2015</v>
@@ -5211,7 +5208,7 @@
         <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C29" t="s">
         <v>90</v>
@@ -5220,7 +5217,7 @@
         <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G29" t="s">
         <v>381</v>
@@ -5264,7 +5261,7 @@
         <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
@@ -5314,22 +5311,22 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C31" t="s">
         <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H31" s="5">
         <v>2015</v>
@@ -5367,22 +5364,22 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H32" s="5">
         <v>2015</v>
@@ -5423,16 +5420,16 @@
         <v>337</v>
       </c>
       <c r="B33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C33" t="s">
         <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F33" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G33" t="s">
         <v>95</v>
@@ -5473,10 +5470,10 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -5488,7 +5485,7 @@
         <v>201</v>
       </c>
       <c r="G34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H34" s="5">
         <v>2015</v>
@@ -5526,10 +5523,10 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C35" t="s">
         <v>153</v>
@@ -5541,7 +5538,7 @@
         <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H35" s="5">
         <v>2015</v>
@@ -5582,22 +5579,19 @@
         <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>383</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>808</v>
+      </c>
+      <c r="G36" t="s">
         <v>384</v>
-      </c>
-      <c r="F36" t="s">
-        <v>809</v>
-      </c>
-      <c r="G36" t="s">
-        <v>385</v>
       </c>
       <c r="H36" s="5">
         <v>2015</v>
@@ -5635,10 +5629,10 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C37" t="s">
         <v>153</v>
@@ -5650,7 +5644,7 @@
         <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H37" s="5">
         <v>2015</v>
@@ -5691,7 +5685,7 @@
         <v>338</v>
       </c>
       <c r="B38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C38" t="s">
         <v>153</v>
@@ -5741,10 +5735,10 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -5794,22 +5788,22 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="E40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F40" t="s">
+        <v>493</v>
+      </c>
+      <c r="G40" t="s">
         <v>494</v>
-      </c>
-      <c r="F40" t="s">
-        <v>494</v>
-      </c>
-      <c r="G40" t="s">
-        <v>495</v>
       </c>
       <c r="H40" s="5">
         <v>2015</v>
@@ -5847,25 +5841,22 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C41" t="s">
         <v>153</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>383</v>
       </c>
-      <c r="E41" t="s">
-        <v>384</v>
-      </c>
       <c r="F41" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H41" s="5">
         <v>2015</v>
@@ -5903,22 +5894,22 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C42" t="s">
         <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H42" s="5">
         <v>2015</v>
@@ -5959,7 +5950,7 @@
         <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C43" t="s">
         <v>90</v>
@@ -6012,7 +6003,7 @@
         <v>343</v>
       </c>
       <c r="B44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
@@ -6062,10 +6053,10 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
@@ -6077,7 +6068,7 @@
         <v>201</v>
       </c>
       <c r="G45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H45" s="5">
         <v>2015</v>
@@ -6115,10 +6106,10 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -6127,10 +6118,10 @@
         <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H46" s="5">
         <v>2015</v>
@@ -6168,10 +6159,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C47" t="s">
         <v>90</v>
@@ -6180,10 +6171,10 @@
         <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H47" s="5">
         <v>2015</v>
@@ -6224,7 +6215,7 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
@@ -6233,7 +6224,7 @@
         <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G48" t="s">
         <v>84</v>
@@ -6265,22 +6256,22 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C49" t="s">
         <v>153</v>
       </c>
       <c r="E49" t="s">
+        <v>419</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
         <v>420</v>
-      </c>
-      <c r="F49" t="s">
-        <v>420</v>
-      </c>
-      <c r="G49" t="s">
-        <v>421</v>
       </c>
       <c r="H49" s="5">
         <v>2015</v>
@@ -6318,10 +6309,10 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C50" t="s">
         <v>358</v>
@@ -6330,10 +6321,10 @@
         <v>358</v>
       </c>
       <c r="F50" t="s">
+        <v>920</v>
+      </c>
+      <c r="G50" t="s">
         <v>921</v>
-      </c>
-      <c r="G50" t="s">
-        <v>922</v>
       </c>
       <c r="H50" s="5">
         <v>2015</v>
@@ -6371,10 +6362,10 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C51" t="s">
         <v>90</v>
@@ -6383,10 +6374,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H51" s="5">
         <v>2015</v>
@@ -6424,10 +6415,10 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B52" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
@@ -6436,10 +6427,10 @@
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H52" s="5">
         <v>2015</v>
@@ -6477,10 +6468,10 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B53" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C53" t="s">
         <v>53</v>
@@ -6530,22 +6521,22 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C54" t="s">
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>503</v>
+      </c>
+      <c r="F54" t="s">
+        <v>503</v>
+      </c>
+      <c r="G54" t="s">
         <v>504</v>
-      </c>
-      <c r="F54" t="s">
-        <v>504</v>
-      </c>
-      <c r="G54" t="s">
-        <v>505</v>
       </c>
       <c r="H54" s="5">
         <v>2015</v>
@@ -6586,7 +6577,7 @@
         <v>345</v>
       </c>
       <c r="B55" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C55" t="s">
         <v>90</v>
@@ -6595,7 +6586,7 @@
         <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G55" t="s">
         <v>346</v>
@@ -6630,7 +6621,7 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
@@ -6639,7 +6630,7 @@
         <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G56" t="s">
         <v>51</v>
@@ -6680,10 +6671,10 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C57" t="s">
         <v>90</v>
@@ -6692,10 +6683,10 @@
         <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H57" s="5">
         <v>2015</v>
@@ -6733,10 +6724,10 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C58" t="s">
         <v>90</v>
@@ -6748,7 +6739,7 @@
         <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H58" s="5">
         <v>2016</v>
@@ -6780,10 +6771,10 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C59" t="s">
         <v>90</v>
@@ -6795,7 +6786,7 @@
         <v>263</v>
       </c>
       <c r="G59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H59" s="5">
         <v>2016</v>
@@ -6830,16 +6821,16 @@
         <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C60" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E60" t="s">
         <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G60" t="s">
         <v>170</v>
@@ -6877,7 +6868,7 @@
         <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C61" t="s">
         <v>49</v>
@@ -6921,10 +6912,10 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -6968,22 +6959,22 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B63" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C63" t="s">
         <v>94</v>
       </c>
       <c r="E63" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F63" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H63" s="5">
         <v>2016</v>
@@ -7018,7 +7009,7 @@
         <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C64" t="s">
         <v>49</v>
@@ -7027,7 +7018,7 @@
         <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G64" t="s">
         <v>107</v>
@@ -7065,16 +7056,16 @@
         <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C65" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E65" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F65" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G65" t="s">
         <v>298</v>
@@ -7109,22 +7100,22 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C66" t="s">
         <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F66" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G66" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H66" s="5">
         <v>2016</v>
@@ -7159,7 +7150,7 @@
         <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -7206,7 +7197,7 @@
         <v>334</v>
       </c>
       <c r="B68" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -7253,7 +7244,7 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>
@@ -7262,7 +7253,7 @@
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G69" t="s">
         <v>80</v>
@@ -7297,10 +7288,10 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B70" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C70" t="s">
         <v>49</v>
@@ -7309,10 +7300,10 @@
         <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H70" s="5">
         <v>2016</v>
@@ -7335,7 +7326,7 @@
         <v>370</v>
       </c>
       <c r="B71" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -7385,7 +7376,7 @@
         <v>373</v>
       </c>
       <c r="B72" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
@@ -7394,7 +7385,7 @@
         <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G72" t="s">
         <v>374</v>
@@ -7432,7 +7423,7 @@
         <v>349</v>
       </c>
       <c r="B73" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C73" t="s">
         <v>49</v>
@@ -7441,7 +7432,7 @@
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G73" t="s">
         <v>350</v>
@@ -7476,10 +7467,10 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -7488,10 +7479,10 @@
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G74" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H74" s="5">
         <v>2016</v>
@@ -7523,22 +7514,22 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B75" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C75" t="s">
         <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F75" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H75" s="5">
         <v>2016</v>
@@ -7573,7 +7564,7 @@
         <v>351</v>
       </c>
       <c r="B76" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C76" t="s">
         <v>49</v>
@@ -7620,7 +7611,7 @@
         <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C77" t="s">
         <v>49</v>
@@ -7664,10 +7655,10 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C78" t="s">
         <v>206</v>
@@ -7676,10 +7667,10 @@
         <v>206</v>
       </c>
       <c r="F78" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G78" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H78" s="5">
         <v>2016</v>
@@ -7714,16 +7705,16 @@
         <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C79" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E79" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F79" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -7761,7 +7752,7 @@
         <v>375</v>
       </c>
       <c r="B80" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -7808,16 +7799,16 @@
         <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E81" t="s">
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G81" t="s">
         <v>317</v>
@@ -7852,10 +7843,10 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B82" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C82" t="s">
         <v>49</v>
@@ -7867,7 +7858,7 @@
         <v>66</v>
       </c>
       <c r="G82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H82" s="5">
         <v>2017</v>
@@ -7902,10 +7893,10 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C83" t="s">
         <v>49</v>
@@ -7917,7 +7908,7 @@
         <v>201</v>
       </c>
       <c r="G83" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H83" s="5">
         <v>2017</v>
@@ -7952,7 +7943,7 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -7961,7 +7952,7 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G84" t="s">
         <v>39</v>
@@ -7999,22 +7990,22 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B85" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C85" t="s">
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F85" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H85" s="5">
         <v>2017</v>
@@ -8052,16 +8043,16 @@
         <v>306</v>
       </c>
       <c r="B86" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E86" t="s">
         <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G86" t="s">
         <v>307</v>
@@ -8099,22 +8090,22 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C87" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E87" t="s">
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G87" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H87" s="5">
         <v>2017</v>
@@ -8140,7 +8131,7 @@
         <v>265</v>
       </c>
       <c r="B88" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C88" t="s">
         <v>49</v>
@@ -8187,7 +8178,7 @@
         <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8196,7 +8187,7 @@
         <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G89" t="s">
         <v>215</v>
@@ -8237,7 +8228,7 @@
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C90" t="s">
         <v>90</v>
@@ -8246,7 +8237,7 @@
         <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G90" t="s">
         <v>121</v>
@@ -8287,7 +8278,7 @@
         <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C91" t="s">
         <v>49</v>
@@ -8337,16 +8328,16 @@
         <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C92" t="s">
         <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F92" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G92" t="s">
         <v>128</v>
@@ -8387,7 +8378,7 @@
         <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
@@ -8428,19 +8419,19 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B94" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C94" t="s">
         <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F94" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G94" t="s">
         <v>283</v>
@@ -8481,10 +8472,10 @@
         <v>257</v>
       </c>
       <c r="B95" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C95" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D95" t="s">
         <v>258</v>
@@ -8493,7 +8484,7 @@
         <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G95" t="s">
         <v>259</v>
@@ -8534,7 +8525,7 @@
         <v>233</v>
       </c>
       <c r="B96" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8543,7 +8534,7 @@
         <v>99</v>
       </c>
       <c r="F96" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G96" t="s">
         <v>234</v>
@@ -8584,7 +8575,7 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C97" t="s">
         <v>49</v>
@@ -8634,7 +8625,7 @@
         <v>210</v>
       </c>
       <c r="B98" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
@@ -8681,7 +8672,7 @@
         <v>308</v>
       </c>
       <c r="B99" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -8690,7 +8681,7 @@
         <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G99" t="s">
         <v>309</v>
@@ -8731,16 +8722,16 @@
         <v>320</v>
       </c>
       <c r="B100" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C100" t="s">
         <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F100" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G100" t="s">
         <v>321</v>
@@ -8781,7 +8772,7 @@
         <v>188</v>
       </c>
       <c r="B101" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C101" t="s">
         <v>49</v>
@@ -8828,10 +8819,10 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C102" t="s">
         <v>90</v>
@@ -8840,10 +8831,10 @@
         <v>91</v>
       </c>
       <c r="F102" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H102" s="5">
         <v>2017</v>
@@ -8878,16 +8869,16 @@
         <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C103" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E103" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F103" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G103" t="s">
         <v>273</v>
@@ -8928,7 +8919,7 @@
         <v>323</v>
       </c>
       <c r="B104" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C104" t="s">
         <v>90</v>
@@ -8937,7 +8928,7 @@
         <v>91</v>
       </c>
       <c r="F104" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G104" t="s">
         <v>324</v>
@@ -8978,7 +8969,7 @@
         <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C105" t="s">
         <v>49</v>
@@ -9028,7 +9019,7 @@
         <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C106" t="s">
         <v>22</v>
@@ -9078,7 +9069,7 @@
         <v>262</v>
       </c>
       <c r="B107" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C107" t="s">
         <v>90</v>
@@ -9128,7 +9119,7 @@
         <v>241</v>
       </c>
       <c r="B108" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C108" t="s">
         <v>90</v>
@@ -9137,7 +9128,7 @@
         <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G108" t="s">
         <v>242</v>
@@ -9175,22 +9166,22 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B109" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C109" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E109" t="s">
         <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G109" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H109" s="5">
         <v>2017</v>
@@ -9228,7 +9219,7 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
@@ -9237,7 +9228,7 @@
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G110" t="s">
         <v>24</v>
@@ -9278,7 +9269,7 @@
         <v>281</v>
       </c>
       <c r="B111" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C111" t="s">
         <v>206</v>
@@ -9287,7 +9278,7 @@
         <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G111" t="s">
         <v>282</v>
@@ -9328,7 +9319,7 @@
         <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C112" t="s">
         <v>49</v>
@@ -9378,7 +9369,7 @@
         <v>231</v>
       </c>
       <c r="B113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C113" t="s">
         <v>49</v>
@@ -9387,7 +9378,7 @@
         <v>50</v>
       </c>
       <c r="F113" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G113" t="s">
         <v>367</v>
@@ -9425,19 +9416,19 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B114" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="E114" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F114" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G114" t="s">
         <v>159</v>
@@ -9475,16 +9466,16 @@
         <v>77</v>
       </c>
       <c r="B115" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C115" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E115" t="s">
         <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G115" t="s">
         <v>78</v>
@@ -9525,7 +9516,7 @@
         <v>292</v>
       </c>
       <c r="B116" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C116" t="s">
         <v>90</v>
@@ -9575,7 +9566,7 @@
         <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
@@ -9584,7 +9575,7 @@
         <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G117" t="s">
         <v>187</v>
@@ -9625,16 +9616,16 @@
         <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C118" t="s">
         <v>127</v>
       </c>
       <c r="E118" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F118" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G118" t="s">
         <v>159</v>
@@ -9675,7 +9666,7 @@
         <v>322</v>
       </c>
       <c r="B119" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C119" t="s">
         <v>34</v>
@@ -9684,10 +9675,10 @@
         <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G119" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H119" s="5">
         <v>2017</v>
@@ -9725,7 +9716,7 @@
         <v>290</v>
       </c>
       <c r="B120" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C120" t="s">
         <v>90</v>
@@ -9734,7 +9725,7 @@
         <v>91</v>
       </c>
       <c r="F120" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G120" t="s">
         <v>291</v>
@@ -9772,13 +9763,13 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B121" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C121" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E121" t="s">
         <v>326</v>
@@ -9787,7 +9778,7 @@
         <v>326</v>
       </c>
       <c r="G121" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H121" s="5">
         <v>2017</v>
@@ -9825,7 +9816,7 @@
         <v>247</v>
       </c>
       <c r="B122" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C122" t="s">
         <v>49</v>
@@ -9875,16 +9866,16 @@
         <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C123" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E123" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F123" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G123" t="s">
         <v>197</v>
@@ -9925,7 +9916,7 @@
         <v>237</v>
       </c>
       <c r="B124" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C124" t="s">
         <v>206</v>
@@ -9934,7 +9925,7 @@
         <v>206</v>
       </c>
       <c r="F124" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G124" t="s">
         <v>238</v>
@@ -9975,7 +9966,7 @@
         <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C125" t="s">
         <v>22</v>
@@ -10025,16 +10016,16 @@
         <v>81</v>
       </c>
       <c r="B126" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C126" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E126" t="s">
         <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G126" t="s">
         <v>82</v>
@@ -10075,7 +10066,7 @@
         <v>33</v>
       </c>
       <c r="B127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C127" t="s">
         <v>34</v>
@@ -10087,7 +10078,7 @@
         <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -10128,7 +10119,7 @@
         <v>368</v>
       </c>
       <c r="B128" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C128" t="s">
         <v>49</v>
@@ -10137,7 +10128,7 @@
         <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G128" t="s">
         <v>369</v>
@@ -10175,22 +10166,22 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B129" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E129" t="s">
         <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H129" s="5">
         <v>2018</v>
@@ -10240,7 +10231,7 @@
         <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
@@ -10302,7 +10293,7 @@
         <v>213</v>
       </c>
       <c r="B131" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C131" t="s">
         <v>22</v>
@@ -10364,7 +10355,7 @@
         <v>357</v>
       </c>
       <c r="B132" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C132" t="s">
         <v>358</v>
@@ -10376,7 +10367,7 @@
         <v>358</v>
       </c>
       <c r="F132" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G132" t="s">
         <v>360</v>
@@ -10426,7 +10417,7 @@
         <v>312</v>
       </c>
       <c r="B133" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C133" t="s">
         <v>163</v>
@@ -10435,7 +10426,7 @@
         <v>163</v>
       </c>
       <c r="F133" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G133" t="s">
         <v>313</v>
@@ -10488,7 +10479,7 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C134" t="s">
         <v>49</v>
@@ -10550,10 +10541,10 @@
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C135" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E135" t="s">
         <v>46</v>
@@ -10609,22 +10600,22 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B136" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C136" t="s">
         <v>49</v>
       </c>
       <c r="E136" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F136" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G136" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H136" s="5">
         <v>2018</v>
@@ -10674,7 +10665,7 @@
         <v>190</v>
       </c>
       <c r="B137" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C137" t="s">
         <v>49</v>
@@ -10736,7 +10727,7 @@
         <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C138" t="s">
         <v>90</v>
@@ -10795,10 +10786,10 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B139" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C139" t="s">
         <v>49</v>
@@ -10810,7 +10801,7 @@
         <v>102</v>
       </c>
       <c r="G139" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H139" s="5">
         <v>2018</v>
@@ -10854,10 +10845,10 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B140" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -10866,10 +10857,10 @@
         <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H140" s="5">
         <v>2018</v>
@@ -10887,7 +10878,7 @@
         <v>31</v>
       </c>
       <c r="M140" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N140">
         <v>53</v>
@@ -10907,7 +10898,7 @@
         <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -10916,7 +10907,7 @@
         <v>99</v>
       </c>
       <c r="F141" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G141" t="s">
         <v>176</v>
@@ -10966,10 +10957,10 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B142" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C142" t="s">
         <v>49</v>
@@ -10978,7 +10969,7 @@
         <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G142" t="s">
         <v>138</v>
@@ -11031,7 +11022,7 @@
         <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -11093,7 +11084,7 @@
         <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -11155,7 +11146,7 @@
         <v>85</v>
       </c>
       <c r="B145" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C145" t="s">
         <v>49</v>
@@ -11217,7 +11208,7 @@
         <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -11226,7 +11217,7 @@
         <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G146" t="s">
         <v>240</v>
@@ -11279,7 +11270,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C147" t="s">
         <v>90</v>
@@ -11288,7 +11279,7 @@
         <v>91</v>
       </c>
       <c r="F147" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G147" t="s">
         <v>148</v>
@@ -11338,10 +11329,10 @@
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B148" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -11350,10 +11341,10 @@
         <v>99</v>
       </c>
       <c r="F148" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G148" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H148" s="5">
         <v>2018</v>
@@ -11400,16 +11391,16 @@
         <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C149" t="s">
         <v>127</v>
       </c>
       <c r="E149" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F149" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G149" t="s">
         <v>195</v>
@@ -11462,16 +11453,16 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C150" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E150" t="s">
         <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G150" t="s">
         <v>227</v>
@@ -11524,16 +11515,16 @@
         <v>365</v>
       </c>
       <c r="B151" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C151" t="s">
         <v>49</v>
       </c>
       <c r="E151" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F151" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G151" t="s">
         <v>366</v>
@@ -11586,7 +11577,7 @@
         <v>314</v>
       </c>
       <c r="B152" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C152" t="s">
         <v>90</v>
@@ -11595,7 +11586,7 @@
         <v>91</v>
       </c>
       <c r="F152" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G152" t="s">
         <v>315</v>
@@ -11645,10 +11636,10 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B153" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C153" t="s">
         <v>49</v>
@@ -11660,7 +11651,7 @@
         <v>201</v>
       </c>
       <c r="G153" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H153" s="5">
         <v>2018</v>
@@ -11707,7 +11698,7 @@
         <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C154" t="s">
         <v>53</v>
@@ -11769,10 +11760,10 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B155" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C155" t="s">
         <v>49</v>
@@ -11784,7 +11775,7 @@
         <v>102</v>
       </c>
       <c r="G155" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H155" s="5">
         <v>2018</v>
@@ -11834,7 +11825,7 @@
         <v>136</v>
       </c>
       <c r="B156" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C156" t="s">
         <v>49</v>
@@ -11843,7 +11834,7 @@
         <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G156" t="s">
         <v>137</v>
@@ -11893,22 +11884,22 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B157" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C157" t="s">
         <v>49</v>
       </c>
       <c r="E157" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F157" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G157" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H157" s="5">
         <v>2018</v>
@@ -11955,10 +11946,10 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B158" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C158" t="s">
         <v>34</v>
@@ -11967,10 +11958,10 @@
         <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G158" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H158" s="5">
         <v>2018</v>
@@ -12017,16 +12008,16 @@
         <v>43</v>
       </c>
       <c r="B159" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E159" t="s">
         <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -12079,7 +12070,7 @@
         <v>175</v>
       </c>
       <c r="B160" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -12088,7 +12079,7 @@
         <v>99</v>
       </c>
       <c r="F160" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G160" t="s">
         <v>176</v>
@@ -12141,16 +12132,16 @@
         <v>377</v>
       </c>
       <c r="B161" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C161" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E161" t="s">
         <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G161" t="s">
         <v>378</v>
@@ -12200,22 +12191,22 @@
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E162" t="s">
         <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G162" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H162" s="5">
         <v>2018</v>
@@ -12265,16 +12256,16 @@
         <v>295</v>
       </c>
       <c r="B163" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C163" t="s">
         <v>94</v>
       </c>
       <c r="E163" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F163" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G163" t="s">
         <v>296</v>
@@ -12327,7 +12318,7 @@
         <v>284</v>
       </c>
       <c r="B164" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C164" t="s">
         <v>90</v>
@@ -12339,7 +12330,7 @@
         <v>91</v>
       </c>
       <c r="F164" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G164" t="s">
         <v>286</v>
@@ -12392,7 +12383,7 @@
         <v>229</v>
       </c>
       <c r="B165" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -12401,7 +12392,7 @@
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G165" t="s">
         <v>230</v>
@@ -12454,7 +12445,7 @@
         <v>252</v>
       </c>
       <c r="B166" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C166" t="s">
         <v>163</v>
@@ -12463,7 +12454,7 @@
         <v>163</v>
       </c>
       <c r="F166" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G166" t="s">
         <v>253</v>
@@ -12516,7 +12507,7 @@
         <v>205</v>
       </c>
       <c r="B167" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C167" t="s">
         <v>206</v>
@@ -12525,7 +12516,7 @@
         <v>206</v>
       </c>
       <c r="F167" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G167" t="s">
         <v>207</v>
@@ -12575,7 +12566,7 @@
         <v>89</v>
       </c>
       <c r="B168" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C168" t="s">
         <v>90</v>
@@ -12584,7 +12575,7 @@
         <v>91</v>
       </c>
       <c r="F168" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G168" t="s">
         <v>92</v>
@@ -12637,10 +12628,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C169" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E169" t="s">
         <v>46</v>
@@ -12699,7 +12690,7 @@
         <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C170" t="s">
         <v>49</v>
@@ -12761,7 +12752,7 @@
         <v>310</v>
       </c>
       <c r="B171" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C171" t="s">
         <v>90</v>
@@ -12770,7 +12761,7 @@
         <v>91</v>
       </c>
       <c r="F171" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G171" t="s">
         <v>311</v>
@@ -12823,16 +12814,16 @@
         <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C172" t="s">
         <v>127</v>
       </c>
       <c r="E172" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F172" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G172" t="s">
         <v>302</v>
@@ -12885,16 +12876,16 @@
         <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C173" t="s">
         <v>94</v>
       </c>
       <c r="E173" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F173" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G173" t="s">
         <v>95</v>
@@ -12947,7 +12938,7 @@
         <v>129</v>
       </c>
       <c r="B174" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C174" t="s">
         <v>127</v>
@@ -12956,10 +12947,10 @@
         <v>130</v>
       </c>
       <c r="E174" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F174" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G174" t="s">
         <v>131</v>
@@ -13012,7 +13003,7 @@
         <v>198</v>
       </c>
       <c r="B175" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C175" t="s">
         <v>49</v>
@@ -13074,7 +13065,7 @@
         <v>98</v>
       </c>
       <c r="B176" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -13083,7 +13074,7 @@
         <v>99</v>
       </c>
       <c r="F176" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G176" t="s">
         <v>100</v>
@@ -13136,7 +13127,7 @@
         <v>245</v>
       </c>
       <c r="B177" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C177" t="s">
         <v>22</v>
@@ -13145,7 +13136,7 @@
         <v>23</v>
       </c>
       <c r="F177" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G177" t="s">
         <v>246</v>
@@ -13198,7 +13189,7 @@
         <v>101</v>
       </c>
       <c r="B178" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C178" t="s">
         <v>49</v>
@@ -13260,16 +13251,16 @@
         <v>150</v>
       </c>
       <c r="B179" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C179" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E179" t="s">
         <v>41</v>
       </c>
       <c r="F179" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G179" t="s">
         <v>151</v>
@@ -13322,10 +13313,10 @@
         <v>96</v>
       </c>
       <c r="B180" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C180" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E180" t="s">
         <v>46</v>
@@ -13384,7 +13375,7 @@
         <v>160</v>
       </c>
       <c r="B181" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -13393,7 +13384,7 @@
         <v>99</v>
       </c>
       <c r="F181" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G181" t="s">
         <v>161</v>
@@ -13446,7 +13437,7 @@
         <v>72</v>
       </c>
       <c r="B182" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C182" t="s">
         <v>49</v>
@@ -13455,7 +13446,7 @@
         <v>50</v>
       </c>
       <c r="F182" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G182" t="s">
         <v>73</v>
@@ -13508,7 +13499,7 @@
         <v>362</v>
       </c>
       <c r="B183" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C183" t="s">
         <v>49</v>
@@ -13567,22 +13558,22 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B184" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C184" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E184" t="s">
         <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G184" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H184" s="5">
         <v>2018</v>
@@ -13632,16 +13623,16 @@
         <v>288</v>
       </c>
       <c r="B185" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C185" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E185" t="s">
         <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G185" t="s">
         <v>289</v>
@@ -13694,7 +13685,7 @@
         <v>110</v>
       </c>
       <c r="B186" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C186" t="s">
         <v>49</v>
@@ -13756,16 +13747,16 @@
         <v>132</v>
       </c>
       <c r="B187" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C187" t="s">
         <v>94</v>
       </c>
       <c r="E187" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F187" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G187" t="s">
         <v>133</v>
@@ -13815,13 +13806,13 @@
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B188" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C188" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E188" t="s">
         <v>326</v>
@@ -13830,7 +13821,7 @@
         <v>326</v>
       </c>
       <c r="G188" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H188" s="5">
         <v>2018</v>
@@ -13880,7 +13871,7 @@
         <v>165</v>
       </c>
       <c r="B189" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -13889,7 +13880,7 @@
         <v>99</v>
       </c>
       <c r="F189" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G189" t="s">
         <v>166</v>
@@ -13942,7 +13933,7 @@
         <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -14001,16 +13992,16 @@
         <v>184</v>
       </c>
       <c r="B191" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C191" t="s">
         <v>127</v>
       </c>
       <c r="E191" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F191" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G191" t="s">
         <v>185</v>
@@ -14063,7 +14054,7 @@
         <v>260</v>
       </c>
       <c r="B192" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C192" t="s">
         <v>49</v>
@@ -14125,7 +14116,7 @@
         <v>318</v>
       </c>
       <c r="B193" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C193" t="s">
         <v>206</v>
@@ -14134,7 +14125,7 @@
         <v>206</v>
       </c>
       <c r="F193" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G193" t="s">
         <v>319</v>
@@ -14184,10 +14175,10 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B194" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C194" t="s">
         <v>49</v>
@@ -14199,7 +14190,7 @@
         <v>66</v>
       </c>
       <c r="G194" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H194" s="5">
         <v>2019</v>
@@ -14246,7 +14237,7 @@
         <v>122</v>
       </c>
       <c r="B195" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -14255,7 +14246,7 @@
         <v>99</v>
       </c>
       <c r="F195" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G195" t="s">
         <v>123</v>
@@ -14308,7 +14299,7 @@
         <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C196" t="s">
         <v>53</v>
@@ -14370,7 +14361,7 @@
         <v>134</v>
       </c>
       <c r="B197" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C197" t="s">
         <v>114</v>
@@ -14379,7 +14370,7 @@
         <v>114</v>
       </c>
       <c r="F197" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G197" t="s">
         <v>135</v>
@@ -14429,22 +14420,22 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B198" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C198" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E198" t="s">
         <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G198" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H198" s="5">
         <v>2019</v>
@@ -14462,7 +14453,7 @@
         <v>30</v>
       </c>
       <c r="M198" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N198">
         <v>58</v>
@@ -14482,7 +14473,7 @@
         <v>224</v>
       </c>
       <c r="B199" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C199" t="s">
         <v>49</v>
@@ -14544,7 +14535,7 @@
         <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C200" t="s">
         <v>163</v>
@@ -14556,7 +14547,7 @@
         <v>163</v>
       </c>
       <c r="F200" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G200" t="s">
         <v>280</v>
@@ -14606,10 +14597,10 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B201" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C201" t="s">
         <v>163</v>
@@ -14618,10 +14609,10 @@
         <v>163</v>
       </c>
       <c r="F201" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G201" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H201" s="5">
         <v>2019</v>
@@ -14636,10 +14627,10 @@
         <v>31</v>
       </c>
       <c r="L201" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M201" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N201">
         <v>100</v>
@@ -14653,13 +14644,13 @@
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B202" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C202" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E202" t="s">
         <v>326</v>
@@ -14668,7 +14659,7 @@
         <v>326</v>
       </c>
       <c r="G202" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H202" s="5">
         <v>2019</v>
@@ -14712,10 +14703,10 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B203" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C203" t="s">
         <v>255</v>
@@ -14724,10 +14715,10 @@
         <v>255</v>
       </c>
       <c r="F203" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G203" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H203" s="5">
         <v>2019</v>
@@ -14745,7 +14736,7 @@
         <v>30</v>
       </c>
       <c r="M203" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N203">
         <v>32</v>
@@ -14765,7 +14756,7 @@
         <v>254</v>
       </c>
       <c r="B204" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C204" t="s">
         <v>255</v>
@@ -14827,7 +14818,7 @@
         <v>328</v>
       </c>
       <c r="B205" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -14836,7 +14827,7 @@
         <v>99</v>
       </c>
       <c r="F205" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G205" t="s">
         <v>329</v>
@@ -14889,7 +14880,7 @@
         <v>108</v>
       </c>
       <c r="B206" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C206" t="s">
         <v>34</v>
@@ -14898,7 +14889,7 @@
         <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G206" t="s">
         <v>109</v>
@@ -14948,10 +14939,10 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B207" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C207" t="s">
         <v>49</v>
@@ -14960,10 +14951,10 @@
         <v>50</v>
       </c>
       <c r="F207" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G207" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H207" s="5">
         <v>2019</v>
@@ -15010,13 +15001,13 @@
         <v>173</v>
       </c>
       <c r="B208" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C208" t="s">
         <v>127</v>
       </c>
       <c r="E208" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F208" t="s">
         <v>174</v>
@@ -15072,7 +15063,7 @@
         <v>304</v>
       </c>
       <c r="B209" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C209" t="s">
         <v>22</v>
@@ -15134,7 +15125,7 @@
         <v>347</v>
       </c>
       <c r="B210" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C210" t="s">
         <v>22</v>
@@ -15193,7 +15184,7 @@
         <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C211" t="s">
         <v>49</v>
@@ -15255,7 +15246,7 @@
         <v>56</v>
       </c>
       <c r="B212" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -15317,7 +15308,7 @@
         <v>267</v>
       </c>
       <c r="B213" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C213" t="s">
         <v>49</v>
@@ -15376,10 +15367,10 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B214" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C214" t="s">
         <v>49</v>
@@ -15391,7 +15382,7 @@
         <v>145</v>
       </c>
       <c r="G214" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H214" s="5">
         <v>2019</v>
@@ -15441,7 +15432,7 @@
         <v>208</v>
       </c>
       <c r="B215" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C215" t="s">
         <v>49</v>
@@ -15503,16 +15494,16 @@
         <v>40</v>
       </c>
       <c r="B216" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C216" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E216" t="s">
         <v>41</v>
       </c>
       <c r="F216" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -15559,7 +15550,7 @@
         <v>299</v>
       </c>
       <c r="B217" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -15568,7 +15559,7 @@
         <v>99</v>
       </c>
       <c r="F217" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G217" t="s">
         <v>300</v>
@@ -15618,13 +15609,13 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B218" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C218" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E218" t="s">
         <v>326</v>
@@ -15633,7 +15624,7 @@
         <v>326</v>
       </c>
       <c r="G218" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H218" s="5">
         <v>2019</v>
@@ -15683,7 +15674,7 @@
         <v>116</v>
       </c>
       <c r="B219" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C219" t="s">
         <v>22</v>
@@ -15745,16 +15736,16 @@
         <v>192</v>
       </c>
       <c r="B220" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C220" t="s">
         <v>94</v>
       </c>
       <c r="E220" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F220" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G220" t="s">
         <v>193</v>
@@ -15807,7 +15798,7 @@
         <v>200</v>
       </c>
       <c r="B221" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C221" t="s">
         <v>49</v>
@@ -15866,10 +15857,10 @@
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B222" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -15878,10 +15869,10 @@
         <v>99</v>
       </c>
       <c r="F222" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G222" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H222" s="5">
         <v>2019</v>
@@ -15928,16 +15919,16 @@
         <v>248</v>
       </c>
       <c r="B223" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C223" t="s">
         <v>127</v>
       </c>
       <c r="E223" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F223" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G223" t="s">
         <v>249</v>
@@ -15990,7 +15981,7 @@
         <v>113</v>
       </c>
       <c r="B224" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C224" t="s">
         <v>114</v>
@@ -15999,7 +15990,7 @@
         <v>114</v>
       </c>
       <c r="F224" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G224" t="s">
         <v>115</v>
@@ -16049,10 +16040,10 @@
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C225" t="s">
         <v>206</v>
@@ -16064,10 +16055,10 @@
         <v>206</v>
       </c>
       <c r="F225" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G225" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H225" s="5">
         <v>2019</v>
@@ -16099,16 +16090,16 @@
         <v>303</v>
       </c>
       <c r="B226" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C226" t="s">
         <v>94</v>
       </c>
       <c r="E226" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F226" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G226" t="s">
         <v>95</v>
@@ -16158,7 +16149,7 @@
         <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C227" t="s">
         <v>49</v>
@@ -16167,7 +16158,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G227" t="s">
         <v>244</v>
@@ -16220,7 +16211,7 @@
         <v>149</v>
       </c>
       <c r="B228" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C228" t="s">
         <v>22</v>
@@ -16282,7 +16273,7 @@
         <v>162</v>
       </c>
       <c r="B229" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C229" t="s">
         <v>163</v>
@@ -16291,7 +16282,7 @@
         <v>163</v>
       </c>
       <c r="F229" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G229" t="s">
         <v>164</v>
@@ -16344,7 +16335,7 @@
         <v>152</v>
       </c>
       <c r="B230" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C230" t="s">
         <v>153</v>
@@ -16403,7 +16394,7 @@
         <v>274</v>
       </c>
       <c r="B231" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C231" t="s">
         <v>22</v>
@@ -16465,7 +16456,7 @@
         <v>293</v>
       </c>
       <c r="B232" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C232" t="s">
         <v>114</v>
@@ -16474,7 +16465,7 @@
         <v>114</v>
       </c>
       <c r="F232" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G232" t="s">
         <v>294</v>
@@ -16521,7 +16512,7 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C233" t="s">
         <v>22</v>
@@ -16583,16 +16574,16 @@
         <v>203</v>
       </c>
       <c r="B234" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C234" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E234" t="s">
         <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G234" t="s">
         <v>204</v>
@@ -16645,7 +16636,7 @@
         <v>119</v>
       </c>
       <c r="B235" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C235" t="s">
         <v>49</v>
@@ -16707,7 +16698,7 @@
         <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C236" t="s">
         <v>53</v>
@@ -16766,22 +16757,22 @@
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B237" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C237" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E237" t="s">
         <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H237" s="5">
         <v>2020</v>
@@ -16804,10 +16795,10 @@
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B238" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>49</v>
@@ -16816,10 +16807,10 @@
         <v>50</v>
       </c>
       <c r="F238" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G238" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H238" s="5">
         <v>2020</v>
@@ -16854,10 +16845,10 @@
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B239" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>358</v>
@@ -16866,10 +16857,10 @@
         <v>358</v>
       </c>
       <c r="F239" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G239" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H239" s="5">
         <v>2020</v>
@@ -16904,10 +16895,10 @@
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B240" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>49</v>
@@ -16919,7 +16910,7 @@
         <v>70</v>
       </c>
       <c r="G240" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H240" s="5">
         <v>2020</v>
@@ -16954,10 +16945,10 @@
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B241" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>358</v>
@@ -16966,10 +16957,10 @@
         <v>358</v>
       </c>
       <c r="F241" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G241" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H241" s="5">
         <v>2020</v>
@@ -17004,10 +16995,10 @@
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B242" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>49</v>
@@ -17019,7 +17010,7 @@
         <v>145</v>
       </c>
       <c r="G242" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H242" s="5">
         <v>2020</v>
@@ -17051,10 +17042,10 @@
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B243" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>49</v>
@@ -17063,10 +17054,10 @@
         <v>50</v>
       </c>
       <c r="F243" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G243" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H243" s="5">
         <v>2020</v>
@@ -17101,10 +17092,10 @@
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B244" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>49</v>
@@ -17113,10 +17104,10 @@
         <v>50</v>
       </c>
       <c r="F244" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G244" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H244" s="5">
         <v>2020</v>
@@ -17151,10 +17142,10 @@
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B245" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>90</v>
@@ -17163,10 +17154,10 @@
         <v>91</v>
       </c>
       <c r="F245" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G245" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H245" s="5">
         <v>2020</v>
@@ -17201,22 +17192,22 @@
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B246" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E246" t="s">
         <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G246" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H246" s="5">
         <v>2020</v>
@@ -17251,10 +17242,10 @@
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B247" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>22</v>
@@ -17263,10 +17254,10 @@
         <v>23</v>
       </c>
       <c r="F247" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G247" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H247" s="5">
         <v>2020</v>
@@ -17298,10 +17289,10 @@
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>22</v>
@@ -17310,10 +17301,10 @@
         <v>23</v>
       </c>
       <c r="F248" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G248" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H248" s="5">
         <v>2020</v>
@@ -17348,10 +17339,10 @@
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B249" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>255</v>
@@ -17360,10 +17351,10 @@
         <v>255</v>
       </c>
       <c r="F249" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G249" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H249" s="5">
         <v>2020</v>
@@ -17398,10 +17389,10 @@
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B250" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>49</v>
@@ -17413,7 +17404,7 @@
         <v>201</v>
       </c>
       <c r="G250" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H250" s="5">
         <v>2020</v>
@@ -17448,22 +17439,22 @@
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>560</v>
+      </c>
+      <c r="B251" t="s">
+        <v>700</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F251" t="s">
+        <v>927</v>
+      </c>
+      <c r="G251" t="s">
         <v>561</v>
-      </c>
-      <c r="B251" t="s">
-        <v>701</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F251" t="s">
-        <v>928</v>
-      </c>
-      <c r="G251" t="s">
-        <v>562</v>
       </c>
       <c r="H251" s="5">
         <v>2020</v>
@@ -17498,10 +17489,10 @@
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B252" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>90</v>
@@ -17510,10 +17501,10 @@
         <v>91</v>
       </c>
       <c r="F252" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G252" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H252" s="5">
         <v>2020</v>
@@ -17548,22 +17539,22 @@
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B253" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E253" t="s">
         <v>41</v>
       </c>
       <c r="F253" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G253" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H253" s="5">
         <v>2020</v>
@@ -17583,10 +17574,10 @@
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B254" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>49</v>
@@ -17595,10 +17586,10 @@
         <v>50</v>
       </c>
       <c r="F254" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G254" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H254" s="5">
         <v>2020</v>
@@ -17633,10 +17624,10 @@
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B255" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>90</v>
@@ -17645,10 +17636,10 @@
         <v>91</v>
       </c>
       <c r="F255" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G255" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H255" s="5">
         <v>2020</v>
@@ -17683,22 +17674,22 @@
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B256" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E256" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F256" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G256" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H256" s="5">
         <v>2020</v>
@@ -17733,10 +17724,10 @@
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B257" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>49</v>
@@ -17745,10 +17736,10 @@
         <v>50</v>
       </c>
       <c r="F257" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G257" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H257" s="5">
         <v>2020</v>
@@ -17783,22 +17774,22 @@
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B258" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E258" t="s">
         <v>41</v>
       </c>
       <c r="F258" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G258" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H258" s="5">
         <v>2020</v>
@@ -17833,10 +17824,10 @@
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B259" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>49</v>
@@ -17848,7 +17839,7 @@
         <v>145</v>
       </c>
       <c r="G259" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H259" s="5">
         <v>2020</v>
@@ -17883,10 +17874,10 @@
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B260" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>49</v>
@@ -17898,7 +17889,7 @@
         <v>66</v>
       </c>
       <c r="G260" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H260" s="5">
         <v>2020</v>
@@ -17930,10 +17921,10 @@
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B261" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>90</v>
@@ -17942,10 +17933,10 @@
         <v>91</v>
       </c>
       <c r="F261" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G261" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H261" s="5">
         <v>2020</v>
@@ -17980,10 +17971,10 @@
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B262" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>22</v>
@@ -17995,7 +17986,7 @@
         <v>117</v>
       </c>
       <c r="G262" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H262" s="5">
         <v>2020</v>
@@ -18030,10 +18021,10 @@
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B263" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>358</v>
@@ -18042,10 +18033,10 @@
         <v>358</v>
       </c>
       <c r="F263" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G263" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H263" s="5">
         <v>2020</v>
@@ -18080,10 +18071,10 @@
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B264" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>22</v>
@@ -18095,7 +18086,7 @@
         <v>59</v>
       </c>
       <c r="G264" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H264" s="5">
         <v>2020</v>
@@ -18127,10 +18118,10 @@
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B265" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>49</v>
@@ -18142,7 +18133,7 @@
         <v>86</v>
       </c>
       <c r="G265" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H265" s="5">
         <v>2020</v>
@@ -18177,22 +18168,22 @@
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B266" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E266" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F266" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G266" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H266" s="5">
         <v>2020</v>
@@ -18227,10 +18218,10 @@
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B267" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>90</v>
@@ -18239,10 +18230,10 @@
         <v>91</v>
       </c>
       <c r="F267" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G267" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H267" s="5">
         <v>2020</v>
@@ -18277,10 +18268,10 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B268" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>49</v>
@@ -18289,10 +18280,10 @@
         <v>50</v>
       </c>
       <c r="F268" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G268" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H268" s="5">
         <v>2020</v>
@@ -18327,10 +18318,10 @@
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B269" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>34</v>
@@ -18339,10 +18330,10 @@
         <v>34</v>
       </c>
       <c r="F269" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G269" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H269" s="5">
         <v>2020</v>
@@ -18377,10 +18368,10 @@
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B270" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>49</v>
@@ -18389,10 +18380,10 @@
         <v>50</v>
       </c>
       <c r="F270" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G270" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H270" s="5">
         <v>2020</v>
@@ -18427,10 +18418,10 @@
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B271" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>49</v>
@@ -18439,10 +18430,10 @@
         <v>50</v>
       </c>
       <c r="F271" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G271" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H271" s="5">
         <v>2020</v>
@@ -18477,13 +18468,13 @@
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B272" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E272" t="s">
         <v>46</v>
@@ -18492,7 +18483,7 @@
         <v>46</v>
       </c>
       <c r="G272" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H272" s="5">
         <v>2020</v>
@@ -18527,10 +18518,10 @@
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B273" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>49</v>
@@ -18542,7 +18533,7 @@
         <v>70</v>
       </c>
       <c r="G273" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H273" s="5">
         <v>2020</v>
@@ -18577,10 +18568,10 @@
     </row>
     <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B274" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>90</v>
@@ -18589,10 +18580,10 @@
         <v>91</v>
       </c>
       <c r="F274" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G274" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H274" s="5">
         <v>2020</v>
@@ -18627,10 +18618,10 @@
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B275" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>49</v>
@@ -18642,7 +18633,7 @@
         <v>201</v>
       </c>
       <c r="G275" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H275" s="5">
         <v>2020</v>
@@ -18677,10 +18668,10 @@
     </row>
     <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B276" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>22</v>
@@ -18689,10 +18680,10 @@
         <v>23</v>
       </c>
       <c r="F276" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G276" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H276" s="5">
         <v>2020</v>
@@ -18727,10 +18718,10 @@
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B277" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>49</v>
@@ -18739,10 +18730,10 @@
         <v>50</v>
       </c>
       <c r="F277" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G277" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H277" s="5">
         <v>2020</v>
@@ -18777,10 +18768,10 @@
     </row>
     <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B278" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>206</v>
@@ -18789,10 +18780,10 @@
         <v>206</v>
       </c>
       <c r="F278" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G278" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H278" s="5">
         <v>2020</v>
@@ -18827,10 +18818,10 @@
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B279" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>49</v>
@@ -18842,7 +18833,7 @@
         <v>145</v>
       </c>
       <c r="G279" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H279" s="5">
         <v>2020</v>
@@ -18877,10 +18868,10 @@
     </row>
     <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B280" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>49</v>
@@ -18892,7 +18883,7 @@
         <v>145</v>
       </c>
       <c r="G280" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H280" s="5">
         <v>2020</v>
@@ -18927,10 +18918,10 @@
     </row>
     <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B281" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>22</v>
@@ -18939,10 +18930,10 @@
         <v>23</v>
       </c>
       <c r="F281" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G281" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H281" s="5">
         <v>2020</v>
@@ -18977,22 +18968,22 @@
     </row>
     <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B282" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F282" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G282" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H282" s="5">
         <v>2020</v>
@@ -19027,10 +19018,10 @@
     </row>
     <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B283" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>22</v>
@@ -19042,7 +19033,7 @@
         <v>275</v>
       </c>
       <c r="G283" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H283" s="5">
         <v>2020</v>
@@ -19077,10 +19068,10 @@
     </row>
     <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B284" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>22</v>
@@ -19092,7 +19083,7 @@
         <v>117</v>
       </c>
       <c r="G284" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H284" s="5">
         <v>2020</v>
@@ -19127,22 +19118,22 @@
     </row>
     <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B285" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E285" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F285" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G285" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H285" s="5">
         <v>2020</v>
@@ -19177,22 +19168,22 @@
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B286" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E286" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F286" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G286" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H286" s="5">
         <v>2020</v>
@@ -19227,10 +19218,10 @@
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B287" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>22</v>
@@ -19277,10 +19268,10 @@
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B288" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>49</v>
@@ -19289,10 +19280,10 @@
         <v>50</v>
       </c>
       <c r="F288" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G288" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H288" s="5">
         <v>2020</v>
@@ -19324,10 +19315,10 @@
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B289" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>90</v>
@@ -19336,10 +19327,10 @@
         <v>91</v>
       </c>
       <c r="F289" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G289" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H289" s="5">
         <v>2020</v>

--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A536ABD-5BEE-8B45-9886-D5BFFC4729AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE783FF-9BBD-DC4F-ADC7-298D514BDBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3707,8 +3707,8 @@
   <dimension ref="A1:X289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17445,7 +17445,7 @@
         <v>699</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>630</v>
+        <v>162</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>630</v>

--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE783FF-9BBD-DC4F-ADC7-298D514BDBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77083F7-08B0-BC44-B29A-1002C05969D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3704,11 +3704,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4308,7 +4309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>529</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>430</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>440</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>486</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>296</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>506</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>331</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>333</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>527</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>369</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>634</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>413</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>350</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>476</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>374</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>315</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>466</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>401</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>472</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>305</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>525</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>329</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>633</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>232</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>209</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>307</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>319</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>410</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>322</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>261</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>280</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>425</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>76</v>
       </c>
@@ -9511,7 +9512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>291</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>185</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>321</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>496</v>
       </c>
@@ -9811,7 +9812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>246</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>195</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>57</v>
       </c>
@@ -10011,7 +10012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>80</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>367</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>460</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>212</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>356</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>311</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>478</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>178</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>523</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>276</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>632</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>286</v>
       </c>
@@ -11079,7 +11080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>73</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>238</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11327,7 +11328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>474</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>193</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>225</v>
       </c>
@@ -11510,7 +11511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>364</v>
       </c>
@@ -11572,7 +11573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>313</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>423</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>267</v>
       </c>
@@ -11758,7 +11759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>399</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>135</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>489</v>
       </c>
@@ -11944,7 +11945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>421</v>
       </c>
@@ -12003,7 +12004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -12065,7 +12066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -12127,7 +12128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>376</v>
       </c>
@@ -12189,7 +12190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>448</v>
       </c>
@@ -12251,7 +12252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>294</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>283</v>
       </c>
@@ -12378,7 +12379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>228</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>251</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -12561,7 +12562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>64</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>309</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>300</v>
       </c>
@@ -12871,7 +12872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -12933,7 +12934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>128</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>97</v>
       </c>
@@ -13122,7 +13123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>244</v>
       </c>
@@ -13184,7 +13185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -13246,7 +13247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>149</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>159</v>
       </c>
@@ -13432,7 +13433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>71</v>
       </c>
@@ -13494,7 +13495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>454</v>
       </c>
@@ -13618,7 +13619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>287</v>
       </c>
@@ -13680,7 +13681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>109</v>
       </c>
@@ -13742,7 +13743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>131</v>
       </c>
@@ -13804,7 +13805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>510</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>164</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -14049,7 +14050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>259</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>317</v>
       </c>
@@ -14173,7 +14174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -14294,7 +14295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -14356,7 +14357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>133</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>514</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>277</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>512</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>519</v>
       </c>
@@ -14751,7 +14752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>253</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -14875,7 +14876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>107</v>
       </c>
@@ -14937,7 +14938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>631</v>
       </c>
@@ -14996,7 +14997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>172</v>
       </c>
@@ -15058,7 +15059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>303</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>346</v>
       </c>
@@ -15179,7 +15180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -15241,7 +15242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>55</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>266</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>397</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>207</v>
       </c>
@@ -15489,7 +15490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>39</v>
       </c>
@@ -15545,7 +15546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -15607,7 +15608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -15669,7 +15670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>115</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>191</v>
       </c>
@@ -15793,7 +15794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>199</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>482</v>
       </c>
@@ -15914,7 +15915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>247</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>112</v>
       </c>
@@ -16038,7 +16039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>521</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>302</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>148</v>
       </c>
@@ -16268,7 +16269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>161</v>
       </c>
@@ -16330,7 +16331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>151</v>
       </c>
@@ -16389,7 +16390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>273</v>
       </c>
@@ -16451,7 +16452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -16507,7 +16508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -16569,7 +16570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>202</v>
       </c>
@@ -16631,7 +16632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>118</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>60</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>531</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>533</v>
       </c>
@@ -16843,7 +16844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>535</v>
       </c>
@@ -16893,7 +16894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>537</v>
       </c>
@@ -16943,7 +16944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>539</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>541</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>543</v>
       </c>
@@ -17090,7 +17091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>545</v>
       </c>
@@ -17140,7 +17141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>547</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>549</v>
       </c>
@@ -17218,18 +17219,6 @@
       <c r="N246">
         <v>54</v>
       </c>
-      <c r="O246">
-        <v>0</v>
-      </c>
-      <c r="P246">
-        <v>0</v>
-      </c>
-      <c r="Q246">
-        <v>0</v>
-      </c>
-      <c r="R246">
-        <v>0</v>
-      </c>
       <c r="T246">
         <v>3</v>
       </c>
@@ -17240,7 +17229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>551</v>
       </c>
@@ -17287,7 +17276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>553</v>
       </c>
@@ -17337,7 +17326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>555</v>
       </c>
@@ -17387,7 +17376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>557</v>
       </c>
@@ -17437,7 +17426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>559</v>
       </c>
@@ -17487,7 +17476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>561</v>
       </c>
@@ -17537,7 +17526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>563</v>
       </c>
@@ -17572,7 +17561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>564</v>
       </c>
@@ -17622,7 +17611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>566</v>
       </c>
@@ -17672,7 +17661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>568</v>
       </c>
@@ -17722,7 +17711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>570</v>
       </c>
@@ -17772,7 +17761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>572</v>
       </c>
@@ -17822,7 +17811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>573</v>
       </c>
@@ -17872,7 +17861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>575</v>
       </c>
@@ -17919,7 +17908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>577</v>
       </c>
@@ -17969,7 +17958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>579</v>
       </c>
@@ -18019,7 +18008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>581</v>
       </c>
@@ -18069,7 +18058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>583</v>
       </c>
@@ -18116,7 +18105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>585</v>
       </c>
@@ -18166,7 +18155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>587</v>
       </c>
@@ -18216,7 +18205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>589</v>
       </c>
@@ -18266,7 +18255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>591</v>
       </c>
@@ -18316,7 +18305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>593</v>
       </c>
@@ -18366,7 +18355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>595</v>
       </c>
@@ -18416,7 +18405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>596</v>
       </c>
@@ -18466,7 +18455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>598</v>
       </c>
@@ -18516,7 +18505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>600</v>
       </c>
@@ -18566,7 +18555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>601</v>
       </c>
@@ -18616,7 +18605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>603</v>
       </c>
@@ -18666,7 +18655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>604</v>
       </c>
@@ -18716,7 +18705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>606</v>
       </c>
@@ -18766,7 +18755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>608</v>
       </c>
@@ -18816,7 +18805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>610</v>
       </c>
@@ -18866,7 +18855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>612</v>
       </c>
@@ -18916,7 +18905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>613</v>
       </c>
@@ -18966,7 +18955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>614</v>
       </c>
@@ -19016,7 +19005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>616</v>
       </c>
@@ -19066,7 +19055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>618</v>
       </c>
@@ -19116,7 +19105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>620</v>
       </c>
@@ -19166,7 +19155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>622</v>
       </c>
@@ -19216,7 +19205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>624</v>
       </c>
@@ -19266,7 +19255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>625</v>
       </c>
@@ -19313,7 +19302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>627</v>
       </c>
@@ -19353,6 +19342,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X289" xr:uid="{8273B0B7-75AB-7043-A5E1-1E193EA41E1D}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2015"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X289">
       <sortCondition ref="H1:H289"/>
     </sortState>

--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77083F7-08B0-BC44-B29A-1002C05969D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45472865-9FBF-364B-BDAD-2EB1A2B3728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3704,12 +3704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4309,7 +4308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>529</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>430</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>440</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>486</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>296</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>506</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>331</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>333</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>527</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>369</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>634</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>413</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>350</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>476</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>374</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>315</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>466</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>401</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>472</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>305</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>525</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>329</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>633</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>232</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>209</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>307</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>319</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -8818,7 +8817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>410</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -8915,7 +8914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>322</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>261</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -9265,7 +9264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>280</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>425</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>76</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>291</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>185</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>321</v>
       </c>
@@ -9712,7 +9711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>496</v>
       </c>
@@ -9812,7 +9811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>246</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>195</v>
       </c>
@@ -9912,7 +9911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>57</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>80</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>367</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>460</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>212</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>356</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>311</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>478</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>178</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>523</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>276</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>632</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>286</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>73</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>238</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>474</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>193</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>225</v>
       </c>
@@ -11511,7 +11510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>364</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>313</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>423</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>267</v>
       </c>
@@ -11759,7 +11758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>399</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>135</v>
       </c>
@@ -11883,7 +11882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>489</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>421</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -12066,7 +12065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>376</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>448</v>
       </c>
@@ -12252,7 +12251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>294</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>283</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>228</v>
       </c>
@@ -12441,7 +12440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>251</v>
       </c>
@@ -12503,7 +12502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -12686,7 +12685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>64</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>309</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>300</v>
       </c>
@@ -12872,7 +12871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>128</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>97</v>
       </c>
@@ -13123,7 +13122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>244</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>149</v>
       </c>
@@ -13309,7 +13308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>159</v>
       </c>
@@ -13433,7 +13432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>71</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -13557,7 +13556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>454</v>
       </c>
@@ -13619,7 +13618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>287</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>109</v>
       </c>
@@ -13743,7 +13742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>131</v>
       </c>
@@ -13805,7 +13804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>510</v>
       </c>
@@ -13867,7 +13866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>164</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -14050,7 +14049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>259</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>317</v>
       </c>
@@ -14174,7 +14173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -14295,7 +14294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>133</v>
       </c>
@@ -14419,7 +14418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>514</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -14531,7 +14530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>277</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -14643,7 +14642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>512</v>
       </c>
@@ -14702,7 +14701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>519</v>
       </c>
@@ -14752,7 +14751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>253</v>
       </c>
@@ -14814,7 +14813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -14876,7 +14875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>107</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>631</v>
       </c>
@@ -14997,7 +14996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>172</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>303</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>346</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -15242,7 +15241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>55</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>266</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>397</v>
       </c>
@@ -15428,7 +15427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>207</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>39</v>
       </c>
@@ -15546,7 +15545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -15670,7 +15669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>115</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>191</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>199</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>482</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>247</v>
       </c>
@@ -15977,7 +15976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>112</v>
       </c>
@@ -16039,7 +16038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>521</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>302</v>
       </c>
@@ -16145,7 +16144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -16207,7 +16206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>148</v>
       </c>
@@ -16269,7 +16268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>161</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>151</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>273</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -16508,7 +16507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>202</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>118</v>
       </c>
@@ -16694,7 +16693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>60</v>
       </c>
@@ -16756,7 +16755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>531</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>533</v>
       </c>
@@ -16844,7 +16843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>535</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>537</v>
       </c>
@@ -16944,7 +16943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>539</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>541</v>
       </c>
@@ -17041,7 +17040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>543</v>
       </c>
@@ -17091,7 +17090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>545</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>547</v>
       </c>
@@ -17191,7 +17190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>549</v>
       </c>
@@ -17229,7 +17228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>551</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>553</v>
       </c>
@@ -17326,7 +17325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>555</v>
       </c>
@@ -17376,7 +17375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>557</v>
       </c>
@@ -17426,7 +17425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>559</v>
       </c>
@@ -17476,7 +17475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>561</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>563</v>
       </c>
@@ -17561,7 +17560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>564</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>566</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>568</v>
       </c>
@@ -17711,7 +17710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>570</v>
       </c>
@@ -17761,7 +17760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>572</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>573</v>
       </c>
@@ -17861,7 +17860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>575</v>
       </c>
@@ -17908,7 +17907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>577</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>579</v>
       </c>
@@ -18008,7 +18007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>581</v>
       </c>
@@ -18058,7 +18057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>583</v>
       </c>
@@ -18105,7 +18104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>585</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>587</v>
       </c>
@@ -18205,7 +18204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>589</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>591</v>
       </c>
@@ -18305,7 +18304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>593</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>595</v>
       </c>
@@ -18405,7 +18404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>596</v>
       </c>
@@ -18455,7 +18454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>598</v>
       </c>
@@ -18505,7 +18504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>600</v>
       </c>
@@ -18555,7 +18554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>601</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>603</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>604</v>
       </c>
@@ -18705,7 +18704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>606</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>608</v>
       </c>
@@ -18805,7 +18804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>610</v>
       </c>
@@ -18855,7 +18854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>612</v>
       </c>
@@ -18905,7 +18904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>613</v>
       </c>
@@ -18955,7 +18954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>614</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>616</v>
       </c>
@@ -19055,7 +19054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>618</v>
       </c>
@@ -19105,7 +19104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>620</v>
       </c>
@@ -19155,7 +19154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>622</v>
       </c>
@@ -19205,7 +19204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>624</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>625</v>
       </c>
@@ -19302,7 +19301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>627</v>
       </c>
@@ -19342,16 +19341,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X289" xr:uid="{8273B0B7-75AB-7043-A5E1-1E193EA41E1D}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="2015"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X289">
       <sortCondition ref="H1:H289"/>
     </sortState>

--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45472865-9FBF-364B-BDAD-2EB1A2B3728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C8F963-9F1E-DB43-BFC8-B419550FF52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3706,9 +3706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14051,28 +14051,28 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B192" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="C192" t="s">
         <v>48</v>
       </c>
       <c r="E192" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="F192" t="s">
-        <v>210</v>
+        <v>870</v>
       </c>
       <c r="G192" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="H192" s="5">
         <v>2019</v>
       </c>
       <c r="I192">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="J192" t="s">
         <v>29</v>
@@ -14081,31 +14081,31 @@
         <v>30</v>
       </c>
       <c r="L192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M192" t="s">
         <v>67</v>
       </c>
       <c r="N192">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="O192">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q192">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T192">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="W192">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="X192" t="s">
         <v>24</v>
@@ -14175,28 +14175,28 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>403</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="C194" t="s">
         <v>48</v>
       </c>
       <c r="E194" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="F194" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="G194" t="s">
-        <v>404</v>
+        <v>201</v>
       </c>
       <c r="H194" s="5">
         <v>2019</v>
       </c>
       <c r="I194">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="J194" t="s">
         <v>29</v>
@@ -14205,28 +14205,31 @@
         <v>30</v>
       </c>
       <c r="L194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M194" t="s">
-        <v>363</v>
+        <v>111</v>
       </c>
       <c r="N194">
+        <v>55</v>
+      </c>
+      <c r="O194">
+        <v>66</v>
+      </c>
+      <c r="P194">
+        <v>5</v>
+      </c>
+      <c r="Q194">
+        <v>23</v>
+      </c>
+      <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="T194">
         <v>25</v>
       </c>
-      <c r="O194">
-        <v>21</v>
-      </c>
-      <c r="P194">
-        <v>1</v>
-      </c>
-      <c r="Q194">
-        <v>76</v>
-      </c>
-      <c r="T194">
-        <v>39</v>
-      </c>
       <c r="W194">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="X194" t="s">
         <v>24</v>
@@ -14939,55 +14942,55 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>631</v>
+        <v>403</v>
       </c>
       <c r="B207" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="C207" t="s">
         <v>48</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F207" t="s">
-        <v>867</v>
+        <v>65</v>
       </c>
       <c r="G207" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H207" s="5">
         <v>2019</v>
       </c>
       <c r="I207">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="J207" t="s">
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L207" t="s">
         <v>29</v>
       </c>
       <c r="M207" t="s">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="N207">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="O207">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="P207">
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="T207">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W207">
         <v>8</v>
@@ -15181,31 +15184,31 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="B211" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C211" t="s">
         <v>48</v>
       </c>
       <c r="E211" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="F211" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="G211" t="s">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="H211" s="5">
         <v>2019</v>
       </c>
       <c r="I211">
-        <v>1509</v>
+        <v>571</v>
       </c>
       <c r="J211" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="K211" t="s">
         <v>30</v>
@@ -15214,25 +15217,25 @@
         <v>29</v>
       </c>
       <c r="M211" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="N211">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O211">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q211">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="R211">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="T211">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="W211">
         <v>9</v>
@@ -15305,61 +15308,58 @@
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>631</v>
       </c>
       <c r="B213" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="C213" t="s">
         <v>48</v>
       </c>
       <c r="E213" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="F213" t="s">
-        <v>210</v>
+        <v>867</v>
       </c>
       <c r="G213" t="s">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="H213" s="5">
         <v>2019</v>
       </c>
       <c r="I213">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J213" t="s">
         <v>29</v>
       </c>
       <c r="K213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L213" t="s">
         <v>29</v>
       </c>
       <c r="M213" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="N213">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O213">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q213">
-        <v>9</v>
-      </c>
-      <c r="R213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T213">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="W213">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="X213" t="s">
         <v>24</v>
@@ -15367,31 +15367,31 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>397</v>
+        <v>118</v>
       </c>
       <c r="B214" t="s">
-        <v>637</v>
+        <v>790</v>
       </c>
       <c r="C214" t="s">
         <v>48</v>
       </c>
       <c r="E214" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="F214" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="G214" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="H214" s="5">
         <v>2019</v>
       </c>
       <c r="I214">
-        <v>571</v>
+        <v>202</v>
       </c>
       <c r="J214" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="K214" t="s">
         <v>30</v>
@@ -15403,25 +15403,25 @@
         <v>67</v>
       </c>
       <c r="N214">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="O214">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P214">
+        <v>17</v>
+      </c>
+      <c r="Q214">
         <v>1</v>
       </c>
-      <c r="Q214">
-        <v>22</v>
-      </c>
       <c r="R214">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T214">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W214">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="X214" t="s">
         <v>24</v>
@@ -15429,61 +15429,61 @@
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="B215" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C215" t="s">
         <v>48</v>
       </c>
       <c r="E215" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="F215" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G215" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H215" s="5">
         <v>2019</v>
       </c>
       <c r="I215">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K215" t="s">
         <v>30</v>
       </c>
       <c r="L215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M215" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N215">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O215">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q215">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T215">
         <v>61</v>
       </c>
       <c r="W215">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X215" t="s">
         <v>24</v>
@@ -15795,7 +15795,7 @@
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B221" t="s">
         <v>644</v>
@@ -15804,22 +15804,22 @@
         <v>48</v>
       </c>
       <c r="E221" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F221" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="G221" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H221" s="5">
         <v>2019</v>
       </c>
       <c r="I221">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="J221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K221" t="s">
         <v>30</v>
@@ -15828,28 +15828,28 @@
         <v>30</v>
       </c>
       <c r="M221" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N221">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="O221">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R221">
         <v>3</v>
       </c>
       <c r="T221">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="W221">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="X221" t="s">
         <v>24</v>
@@ -16146,28 +16146,28 @@
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B227" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C227" t="s">
         <v>48</v>
       </c>
       <c r="E227" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="F227" t="s">
-        <v>870</v>
+        <v>210</v>
       </c>
       <c r="G227" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H227" s="5">
         <v>2019</v>
       </c>
       <c r="I227">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J227" t="s">
         <v>29</v>
@@ -16176,31 +16176,31 @@
         <v>30</v>
       </c>
       <c r="L227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M227" t="s">
         <v>67</v>
       </c>
       <c r="N227">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O227">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q227">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R227">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T227">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="W227">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="X227" t="s">
         <v>24</v>
@@ -16633,31 +16633,31 @@
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B235" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
       <c r="C235" t="s">
         <v>48</v>
       </c>
       <c r="E235" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F235" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G235" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="H235" s="5">
         <v>2019</v>
       </c>
       <c r="I235">
-        <v>202</v>
+        <v>1509</v>
       </c>
       <c r="J235" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="K235" t="s">
         <v>30</v>
@@ -16666,28 +16666,28 @@
         <v>29</v>
       </c>
       <c r="M235" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="N235">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="O235">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P235">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q235">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T235">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="W235">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="X235" t="s">
         <v>24</v>
@@ -16795,10 +16795,10 @@
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B238" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>48</v>
@@ -16807,37 +16807,37 @@
         <v>49</v>
       </c>
       <c r="F238" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G238" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="H238" s="5">
         <v>2020</v>
       </c>
       <c r="I238">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="N238">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O238">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P238">
+        <v>8</v>
+      </c>
+      <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
         <v>4</v>
       </c>
-      <c r="Q238">
-        <v>10</v>
-      </c>
-      <c r="R238">
-        <v>3</v>
-      </c>
       <c r="T238">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W238">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="X238" t="s">
         <v>24</v>
@@ -16895,22 +16895,22 @@
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B240" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E240" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F240" t="s">
-        <v>69</v>
+        <v>819</v>
       </c>
       <c r="G240" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H240" s="5">
         <v>2020</v>
@@ -16919,25 +16919,25 @@
         <v>97</v>
       </c>
       <c r="N240">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O240">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P240">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q240">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="R240">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T240">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="W240">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="X240" t="s">
         <v>24</v>
@@ -16995,96 +16995,99 @@
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="B242" t="s">
-        <v>672</v>
+        <v>759</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E242" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F242" t="s">
-        <v>144</v>
+        <v>881</v>
       </c>
       <c r="G242" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="H242" s="5">
         <v>2020</v>
       </c>
       <c r="I242">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="N242">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O242">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="P242">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="R242">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="T242">
+        <v>3</v>
       </c>
       <c r="W242">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="X242" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="B243" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E243" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F243" t="s">
-        <v>819</v>
+        <v>144</v>
       </c>
       <c r="G243" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="H243" s="5">
         <v>2020</v>
       </c>
       <c r="I243">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N243">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="O243">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P243">
+        <v>7</v>
+      </c>
+      <c r="Q243">
         <v>3</v>
       </c>
-      <c r="Q243">
+      <c r="R243">
+        <v>7</v>
+      </c>
+      <c r="T243">
         <v>18</v>
       </c>
-      <c r="R243">
-        <v>6</v>
-      </c>
-      <c r="T243">
-        <v>0</v>
-      </c>
       <c r="W243">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="X243" t="s">
         <v>24</v>
@@ -17092,52 +17095,52 @@
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="B244" t="s">
-        <v>681</v>
+        <v>768</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E244" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F244" t="s">
-        <v>843</v>
+        <v>144</v>
       </c>
       <c r="G244" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="H244" s="5">
         <v>2020</v>
       </c>
       <c r="I244">
-        <v>175</v>
+        <v>601</v>
       </c>
       <c r="N244">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="O244">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R244">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T244">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="W244">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="X244" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.2">
@@ -17377,49 +17380,49 @@
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="B250" t="s">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E250" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="F250" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="G250" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="H250" s="5">
         <v>2020</v>
       </c>
       <c r="I250">
-        <v>220</v>
+        <v>536</v>
       </c>
       <c r="N250">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="O250">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q250">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="R250">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T250">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="W250">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="X250" t="s">
         <v>24</v>
@@ -17562,10 +17565,10 @@
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="B254" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>48</v>
@@ -17574,37 +17577,37 @@
         <v>49</v>
       </c>
       <c r="F254" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G254" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="H254" s="5">
         <v>2020</v>
       </c>
       <c r="I254">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="N254">
+        <v>57</v>
+      </c>
+      <c r="O254">
+        <v>71</v>
+      </c>
+      <c r="P254">
+        <v>6</v>
+      </c>
+      <c r="Q254">
+        <v>15</v>
+      </c>
+      <c r="R254">
+        <v>4</v>
+      </c>
+      <c r="T254">
         <v>31</v>
       </c>
-      <c r="O254">
-        <v>92</v>
-      </c>
-      <c r="P254">
-        <v>3</v>
-      </c>
-      <c r="Q254">
-        <v>2</v>
-      </c>
-      <c r="R254">
-        <v>5</v>
-      </c>
-      <c r="T254">
-        <v>75</v>
-      </c>
       <c r="W254">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="X254" t="s">
         <v>24</v>
@@ -17712,10 +17715,10 @@
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="B257" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>48</v>
@@ -17724,37 +17727,37 @@
         <v>49</v>
       </c>
       <c r="F257" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G257" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="H257" s="5">
         <v>2020</v>
       </c>
       <c r="I257">
-        <v>50</v>
+        <v>702</v>
       </c>
       <c r="N257">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O257">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="P257">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q257">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T257">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="W257">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="X257" t="s">
         <v>24</v>
@@ -17812,49 +17815,46 @@
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="B259" t="s">
-        <v>716</v>
+        <v>793</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E259" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F259" t="s">
-        <v>144</v>
+        <v>887</v>
       </c>
       <c r="G259" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="H259" s="5">
         <v>2020</v>
       </c>
       <c r="I259">
-        <v>536</v>
+        <v>105</v>
       </c>
       <c r="N259">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="O259">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P259">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q259">
-        <v>6</v>
-      </c>
-      <c r="R259">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T259">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="W259">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="X259" t="s">
         <v>24</v>
@@ -17862,46 +17862,49 @@
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B260" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E260" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="F260" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="G260" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="H260" s="5">
         <v>2020</v>
       </c>
       <c r="I260">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="N260">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O260">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="P260">
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="R260">
+        <v>4</v>
       </c>
       <c r="T260">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="W260">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="X260" t="s">
         <v>24</v>
@@ -18106,52 +18109,52 @@
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="B265" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E265" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F265" t="s">
-        <v>85</v>
+        <v>843</v>
       </c>
       <c r="G265" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="H265" s="5">
         <v>2020</v>
       </c>
       <c r="I265">
-        <v>930</v>
+        <v>175</v>
       </c>
       <c r="N265">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O265">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="P265">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q265">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R265">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T265">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="W265">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="X265" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.2">
@@ -18256,10 +18259,10 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B268" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>48</v>
@@ -18268,37 +18271,37 @@
         <v>49</v>
       </c>
       <c r="F268" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="G268" t="s">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="H268" s="5">
         <v>2020</v>
       </c>
       <c r="I268">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="N268">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O268">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P268">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q268">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R268">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T268">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W268">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="X268" t="s">
         <v>24</v>
@@ -18356,10 +18359,10 @@
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="B270" t="s">
-        <v>745</v>
+        <v>654</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>48</v>
@@ -18377,28 +18380,28 @@
         <v>2020</v>
       </c>
       <c r="I270">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="N270">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O270">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P270">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q270">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T270">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W270">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X270" t="s">
         <v>24</v>
@@ -18406,46 +18409,46 @@
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="B271" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F271" t="s">
-        <v>879</v>
+        <v>69</v>
       </c>
       <c r="G271" t="s">
-        <v>597</v>
+        <v>538</v>
       </c>
       <c r="H271" s="5">
         <v>2020</v>
       </c>
       <c r="I271">
-        <v>702</v>
+        <v>97</v>
       </c>
       <c r="N271">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O271">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P271">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q271">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R271">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T271">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="W271">
         <v>61</v>
@@ -18506,49 +18509,49 @@
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B273" t="s">
-        <v>742</v>
+        <v>637</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E273" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="F273" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="G273" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="H273" s="5">
         <v>2020</v>
       </c>
       <c r="I273">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="N273">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O273">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P273">
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R273">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T273">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W273">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X273" t="s">
         <v>24</v>
@@ -18606,49 +18609,49 @@
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B275" t="s">
-        <v>637</v>
+        <v>742</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E275" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="F275" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="G275" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="H275" s="5">
         <v>2020</v>
       </c>
       <c r="I275">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="N275">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O275">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P275">
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R275">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T275">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W275">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X275" t="s">
         <v>24</v>
@@ -18706,49 +18709,46 @@
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="B277" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E277" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F277" t="s">
-        <v>881</v>
+        <v>65</v>
       </c>
       <c r="G277" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="H277" s="5">
         <v>2020</v>
       </c>
       <c r="I277">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="N277">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O277">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="T277">
+        <v>69</v>
+      </c>
+      <c r="W277">
         <v>7</v>
-      </c>
-      <c r="Q277">
-        <v>11</v>
-      </c>
-      <c r="R277">
-        <v>11</v>
-      </c>
-      <c r="T277">
-        <v>3</v>
-      </c>
-      <c r="W277">
-        <v>65</v>
       </c>
       <c r="X277" t="s">
         <v>24</v>
@@ -18806,49 +18806,49 @@
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
       <c r="B279" t="s">
-        <v>765</v>
+        <v>707</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E279" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F279" t="s">
-        <v>144</v>
+        <v>890</v>
       </c>
       <c r="G279" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="H279" s="5">
         <v>2020</v>
       </c>
       <c r="I279">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="N279">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="O279">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P279">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R279">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T279">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="W279">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="X279" t="s">
         <v>24</v>
@@ -18856,49 +18856,49 @@
     </row>
     <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B280" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E280" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="F280" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="G280" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="H280" s="5">
         <v>2020</v>
       </c>
       <c r="I280">
-        <v>601</v>
+        <v>930</v>
       </c>
       <c r="N280">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O280">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P280">
+        <v>5</v>
+      </c>
+      <c r="Q280">
+        <v>21</v>
+      </c>
+      <c r="R280">
         <v>9</v>
       </c>
-      <c r="Q280">
-        <v>4</v>
-      </c>
-      <c r="R280">
-        <v>8</v>
-      </c>
       <c r="T280">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="W280">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="X280" t="s">
         <v>24</v>
@@ -19256,49 +19256,49 @@
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c r="B288" t="s">
-        <v>793</v>
+        <v>672</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E288" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F288" t="s">
-        <v>887</v>
+        <v>144</v>
       </c>
       <c r="G288" t="s">
-        <v>626</v>
+        <v>542</v>
       </c>
       <c r="H288" s="5">
         <v>2020</v>
       </c>
       <c r="I288">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N288">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O288">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="P288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q288">
-        <v>1</v>
-      </c>
-      <c r="T288">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
       </c>
       <c r="W288">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X288" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.2">
@@ -19341,8 +19341,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X289" xr:uid="{8273B0B7-75AB-7043-A5E1-1E193EA41E1D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X289">
-      <sortCondition ref="H1:H289"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A192:X235">
+      <sortCondition ref="T1:T289"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/Shiny_app/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/Shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C8F963-9F1E-DB43-BFC8-B419550FF52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37779F6-00B3-5745-BD50-3928F6ADA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA DTS 15-20 data" sheetId="1" r:id="rId1"/>
@@ -14367,7 +14367,7 @@
         <v>679</v>
       </c>
       <c r="C197" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="E197" t="s">
         <v>113</v>
@@ -15984,7 +15984,7 @@
         <v>680</v>
       </c>
       <c r="C224" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="E224" t="s">
         <v>113</v>
@@ -16459,7 +16459,7 @@
         <v>781</v>
       </c>
       <c r="C232" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="E232" t="s">
         <v>113</v>
